--- a/hiqu/HR/Performance Evaluation/October 2024/Project Summary/Project Performance Report.xlsx
+++ b/hiqu/HR/Performance Evaluation/October 2024/Project Summary/Project Performance Report.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\September 2024\Project Summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\October 2024\Project Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7636BA-42A4-43FC-864E-982E377668D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FCA2E5-770D-4CBC-AC28-ACB7E87938B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="593" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="593" activeTab="3" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="4" r:id="rId1"/>
     <sheet name="September 2024" sheetId="1" r:id="rId2"/>
     <sheet name="October 2024" sheetId="3" r:id="rId3"/>
+    <sheet name="November 2024" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +81,7 @@
     The task in in progress </t>
       </text>
     </comment>
-    <comment ref="T118" authorId="4" shapeId="0" xr:uid="{0B4B88A9-A188-44BE-9BAB-B6649E0F3420}">
+    <comment ref="T116" authorId="4" shapeId="0" xr:uid="{0B4B88A9-A188-44BE-9BAB-B6649E0F3420}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,8 +129,26 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DF7EC65F-7691-42FE-8B9F-61D44F5AA225}</author>
+  </authors>
+  <commentList>
+    <comment ref="T64" authorId="0" shapeId="0" xr:uid="{DF7EC65F-7691-42FE-8B9F-61D44F5AA225}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is difference for tasks where estimate is provided and Actual Work is performed</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="128">
   <si>
     <t>Development</t>
   </si>
@@ -508,6 +527,12 @@
   <si>
     <t>Period: September 2024 - June 2025</t>
   </si>
+  <si>
+    <t>Period: November 2024</t>
+  </si>
+  <si>
+    <t>Project /</t>
+  </si>
 </sst>
 </file>
 
@@ -614,7 +639,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1135,10 +1160,10 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,10 +1196,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1552,7 +1577,7 @@
   <threadedComment ref="T19" dT="2024-11-11T06:47:41.76" personId="{3E8113B0-E6CB-455B-9106-F7AF911007F5}" id="{A44BC082-74BC-47D4-9F07-E4217DC13E22}">
     <text xml:space="preserve">The task in in progress </text>
   </threadedComment>
-  <threadedComment ref="T118" dT="2024-10-07T08:55:54.53" personId="{A8287EEA-BBB4-432E-9C57-8E086EBF1341}" id="{0B4B88A9-A188-44BE-9BAB-B6649E0F3420}">
+  <threadedComment ref="T116" dT="2024-10-07T08:55:54.53" personId="{A8287EEA-BBB4-432E-9C57-8E086EBF1341}" id="{0B4B88A9-A188-44BE-9BAB-B6649E0F3420}">
     <text>This is difference for tasks where estimate is provided and Actual Work is performed</text>
   </threadedComment>
 </ThreadedComments>
@@ -1574,12 +1599,20 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="T64" dT="2024-10-07T08:55:54.53" personId="{A8287EEA-BBB4-432E-9C57-8E086EBF1341}" id="{DF7EC65F-7691-42FE-8B9F-61D44F5AA225}">
+    <text>This is difference for tasks where estimate is provided and Actual Work is performed</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B8A35B-1132-4B02-A6C4-C43207BD2569}">
-  <dimension ref="A2:AF125"/>
+  <dimension ref="A2:AF123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,11 +1925,11 @@
       </c>
       <c r="S8" s="27"/>
       <c r="T8" s="48" t="str">
-        <f t="shared" ref="T8:T86" si="0">IF(R8&gt;0,IF(S8&gt;0,R8-S8,""),"")</f>
+        <f t="shared" ref="T8:T84" si="0">IF(R8&gt;0,IF(S8&gt;0,R8-S8,""),"")</f>
         <v/>
       </c>
       <c r="V8" s="67">
-        <f t="shared" ref="V8:V88" si="1">E8</f>
+        <f t="shared" ref="V8:V86" si="1">E8</f>
         <v>8</v>
       </c>
       <c r="W8" s="27">
@@ -1907,7 +1940,7 @@
         <v>-62</v>
       </c>
       <c r="Z8" s="67">
-        <f t="shared" ref="Z8:Z86" si="3">F8</f>
+        <f t="shared" ref="Z8:Z84" si="3">F8</f>
         <v>0</v>
       </c>
       <c r="AA8" s="27"/>
@@ -1996,7 +2029,7 @@
         <v>52</v>
       </c>
       <c r="AE9" s="77">
-        <f t="shared" ref="AE9:AE89" si="6">G9+I9+J9+L9+M9+N9+O9+P9+Q9+S9+W9+AA9</f>
+        <f t="shared" ref="AE9:AE87" si="6">G9+I9+J9+L9+M9+N9+O9+P9+Q9+S9+W9+AA9</f>
         <v>296</v>
       </c>
       <c r="AF9" s="79"/>
@@ -2204,7 +2237,7 @@
       <c r="O13" s="25"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="103">
+      <c r="R13" s="91">
         <v>4</v>
       </c>
       <c r="S13" s="63">
@@ -2520,7 +2553,7 @@
         <f>10.5+27</f>
         <v>37.5</v>
       </c>
-      <c r="T18" s="104">
+      <c r="T18" s="92">
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
@@ -2651,11 +2684,11 @@
         <v>30</v>
       </c>
       <c r="S20" s="27">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="T20" s="54">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="V20" s="67">
         <f t="shared" si="1"/>
@@ -2686,7 +2719,7 @@
       </c>
       <c r="AE20" s="77">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AF20" s="79"/>
     </row>
@@ -2696,7 +2729,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="57">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="57">
         <v>4</v>
@@ -2711,32 +2744,41 @@
       <c r="M21" s="46"/>
       <c r="N21" s="46"/>
       <c r="O21" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="P21" s="32"/>
+        <v>4.5</v>
+      </c>
+      <c r="P21" s="32">
+        <v>6</v>
+      </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="3">
-        <v>10</v>
-      </c>
-      <c r="S21" s="33"/>
-      <c r="T21" s="48" t="str">
+        <f>D21</f>
+        <v>16</v>
+      </c>
+      <c r="S21" s="33">
+        <v>4</v>
+      </c>
+      <c r="T21" s="48">
         <f t="shared" si="0"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="V21" s="67">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="W21" s="33"/>
-      <c r="X21" s="48" t="str">
+      <c r="W21" s="33">
+        <v>4</v>
+      </c>
+      <c r="X21" s="48">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="Z21" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="33"/>
+      <c r="AA21" s="33">
+        <v>5</v>
+      </c>
       <c r="AB21" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2744,11 +2786,11 @@
       <c r="AC21" s="30"/>
       <c r="AD21" s="29">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE21" s="77">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>23.5</v>
       </c>
       <c r="AF21" s="79"/>
     </row>
@@ -3283,7 +3325,7 @@
       <c r="AB30" s="48"/>
       <c r="AC30" s="30"/>
       <c r="AD30" s="29">
-        <f t="shared" ref="AD30:AD35" si="7">R30+V30+Z30</f>
+        <f t="shared" ref="AD30:AD33" si="7">R30+V30+Z30</f>
         <v>0</v>
       </c>
       <c r="AE30" s="77">
@@ -3353,9 +3395,11 @@
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="16"/>
+        <v>76</v>
+      </c>
+      <c r="D32" s="16">
+        <v>56</v>
+      </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="27"/>
@@ -3364,173 +3408,173 @@
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31">
-        <v>3</v>
-      </c>
-      <c r="P32" s="32">
-        <v>6</v>
-      </c>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27">
+        <v>1</v>
+      </c>
+      <c r="P32" s="35"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="27"/>
-      <c r="S32" s="33">
-        <v>25</v>
+      <c r="S32" s="27">
+        <v>14</v>
       </c>
       <c r="T32" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="U32" s="27"/>
       <c r="V32" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W32" s="33"/>
+      <c r="W32" s="27"/>
       <c r="X32" s="48"/>
+      <c r="Y32" s="27"/>
       <c r="Z32" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="33">
-        <v>2</v>
+      <c r="AA32" s="27">
+        <v>9</v>
       </c>
       <c r="AB32" s="48"/>
+      <c r="AC32" s="27"/>
       <c r="AD32" s="29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE32" s="77">
         <f t="shared" si="6"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AF32" s="79"/>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="57">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27">
-        <v>1</v>
-      </c>
-      <c r="P33" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="D33" s="44">
+        <v>32</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="36"/>
       <c r="Q33" s="17"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="27">
-        <v>4</v>
+      <c r="R33" s="31"/>
+      <c r="S33" s="33">
+        <v>8</v>
       </c>
       <c r="T33" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U33" s="27"/>
+      <c r="U33" s="33"/>
       <c r="V33" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W33" s="27">
-        <v>4</v>
-      </c>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="27"/>
+      <c r="W33" s="33">
+        <v>31</v>
+      </c>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="33"/>
       <c r="Z33" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="27">
-        <v>3</v>
-      </c>
-      <c r="AB33" s="48"/>
-      <c r="AC33" s="27"/>
+      <c r="AA33" s="33">
+        <v>2</v>
+      </c>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="33"/>
       <c r="AD33" s="29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE33" s="77">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AF33" s="79"/>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="C34" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="16">
-        <v>56</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27">
-        <v>1</v>
-      </c>
-      <c r="P34" s="35"/>
+      <c r="C34" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="33">
+        <v>9</v>
+      </c>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33">
+        <f>20.5+28.5</f>
+        <v>49</v>
+      </c>
+      <c r="J34" s="33">
+        <f>2.5+39.5</f>
+        <v>42</v>
+      </c>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33">
+        <f>4+9.5</f>
+        <v>13.5</v>
+      </c>
+      <c r="P34" s="36"/>
       <c r="Q34" s="17"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27">
-        <v>14</v>
-      </c>
+      <c r="R34" s="31"/>
+      <c r="S34" s="33"/>
       <c r="T34" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U34" s="27"/>
+      <c r="U34" s="33"/>
       <c r="V34" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W34" s="27"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="27"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="33"/>
       <c r="Z34" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="27">
-        <v>9</v>
-      </c>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="27"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="33"/>
       <c r="AD34" s="29">
-        <f t="shared" si="7"/>
+        <f>R34+V34+Z34</f>
         <v>0</v>
       </c>
       <c r="AE34" s="77">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f t="shared" ref="AE34:AE39" si="8">G34+I34+J34+L34+M34+N34+O34+P34+Q34+S34+W34+AA34</f>
+        <v>113.5</v>
       </c>
       <c r="AF34" s="79"/>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="44">
-        <v>32</v>
-      </c>
+      <c r="B35" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="56"/>
       <c r="F35" s="56"/>
       <c r="G35" s="33"/>
@@ -3545,9 +3589,7 @@
       <c r="P35" s="36"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="31"/>
-      <c r="S35" s="33">
-        <v>8</v>
-      </c>
+      <c r="S35" s="33"/>
       <c r="T35" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3557,57 +3599,45 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W35" s="33">
-        <v>31</v>
-      </c>
-      <c r="X35" s="51"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="48"/>
       <c r="Y35" s="33"/>
       <c r="Z35" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="33">
-        <v>2</v>
-      </c>
-      <c r="AB35" s="51"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="48"/>
       <c r="AC35" s="33"/>
-      <c r="AD35" s="29">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="AD35" s="29"/>
       <c r="AE35" s="77">
-        <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-      <c r="AF35" s="79"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="80"/>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="33">
-        <v>9</v>
-      </c>
+      <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="33">
-        <f>20.5+28.5</f>
-        <v>49</v>
-      </c>
-      <c r="J36" s="33">
-        <f>2.5+39.5</f>
-        <v>42</v>
-      </c>
-      <c r="K36" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33">
+        <v>17</v>
+      </c>
       <c r="L36" s="33"/>
       <c r="M36" s="33"/>
       <c r="N36" s="33"/>
       <c r="O36" s="33">
-        <f>4+9.5</f>
-        <v>13.5</v>
+        <v>4</v>
       </c>
       <c r="P36" s="36"/>
       <c r="Q36" s="17"/>
@@ -3623,46 +3653,55 @@
         <v>0</v>
       </c>
       <c r="W36" s="33"/>
-      <c r="X36" s="51"/>
+      <c r="X36" s="48"/>
       <c r="Y36" s="33"/>
       <c r="Z36" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA36" s="33"/>
-      <c r="AB36" s="51"/>
+      <c r="AB36" s="48"/>
       <c r="AC36" s="33"/>
-      <c r="AD36" s="29">
-        <f>R36+V36+Z36</f>
-        <v>0</v>
-      </c>
+      <c r="AD36" s="29"/>
       <c r="AE36" s="77">
-        <f t="shared" ref="AE36:AE41" si="8">G36+I36+J36+L36+M36+N36+O36+P36+Q36+S36+W36+AA36</f>
-        <v>113.5</v>
-      </c>
-      <c r="AF36" s="79"/>
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="AF36" s="80"/>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B37" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="56">
+        <v>67</v>
+      </c>
+      <c r="E37" s="56">
+        <v>40</v>
+      </c>
+      <c r="F37" s="56">
+        <v>20</v>
+      </c>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="I37" s="33">
+        <v>2.5</v>
+      </c>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
       <c r="L37" s="33"/>
       <c r="M37" s="33"/>
       <c r="N37" s="33"/>
       <c r="O37" s="33"/>
-      <c r="P37" s="36"/>
+      <c r="P37" s="36">
+        <v>35</v>
+      </c>
       <c r="Q37" s="17"/>
       <c r="R37" s="31"/>
-      <c r="S37" s="33"/>
+      <c r="S37" s="33">
+        <v>59</v>
+      </c>
       <c r="T37" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3670,14 +3709,14 @@
       <c r="U37" s="33"/>
       <c r="V37" s="67">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W37" s="33"/>
       <c r="X37" s="48"/>
       <c r="Y37" s="33"/>
       <c r="Z37" s="67">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA37" s="33"/>
       <c r="AB37" s="48"/>
@@ -3685,37 +3724,35 @@
       <c r="AD37" s="29"/>
       <c r="AE37" s="77">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="AF37" s="80"/>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="61" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
-      <c r="I38" s="33">
-        <v>12</v>
-      </c>
+      <c r="I38" s="33"/>
       <c r="J38" s="33"/>
-      <c r="K38" s="33">
-        <v>17</v>
-      </c>
+      <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
       <c r="N38" s="33"/>
       <c r="O38" s="33">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P38" s="36"/>
       <c r="Q38" s="17"/>
       <c r="R38" s="31"/>
-      <c r="S38" s="33"/>
+      <c r="S38" s="33">
+        <v>16</v>
+      </c>
       <c r="T38" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3726,54 +3763,50 @@
         <v>0</v>
       </c>
       <c r="W38" s="33"/>
-      <c r="X38" s="48"/>
+      <c r="X38" s="34"/>
       <c r="Y38" s="33"/>
       <c r="Z38" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA38" s="33"/>
-      <c r="AB38" s="48"/>
+      <c r="AB38" s="34"/>
       <c r="AC38" s="33"/>
-      <c r="AD38" s="29"/>
+      <c r="AD38" s="37"/>
       <c r="AE38" s="77">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AF38" s="80"/>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="61" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D39" s="56">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E39" s="56">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F39" s="56">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
-      <c r="I39" s="33">
-        <v>2.5</v>
-      </c>
+      <c r="I39" s="33"/>
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
       <c r="N39" s="33"/>
       <c r="O39" s="33"/>
-      <c r="P39" s="36">
-        <v>35</v>
-      </c>
+      <c r="P39" s="36"/>
       <c r="Q39" s="17"/>
       <c r="R39" s="31"/>
       <c r="S39" s="33">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="T39" s="48" t="str">
         <f t="shared" si="0"/>
@@ -3782,29 +3815,29 @@
       <c r="U39" s="33"/>
       <c r="V39" s="67">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="W39" s="33"/>
-      <c r="X39" s="48"/>
+      <c r="X39" s="34"/>
       <c r="Y39" s="33"/>
       <c r="Z39" s="67">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA39" s="33"/>
-      <c r="AB39" s="48"/>
+      <c r="AB39" s="34"/>
       <c r="AC39" s="33"/>
-      <c r="AD39" s="29"/>
+      <c r="AD39" s="37"/>
       <c r="AE39" s="77">
         <f t="shared" si="8"/>
-        <v>96.5</v>
+        <v>3</v>
       </c>
       <c r="AF39" s="80"/>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="61" t="s">
-        <v>83</v>
+    <row r="40" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="87" t="s">
+        <v>116</v>
       </c>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
@@ -3817,54 +3850,36 @@
       <c r="L40" s="33"/>
       <c r="M40" s="33"/>
       <c r="N40" s="33"/>
-      <c r="O40" s="33">
-        <v>16</v>
-      </c>
+      <c r="O40" s="33"/>
       <c r="P40" s="36"/>
       <c r="Q40" s="17"/>
       <c r="R40" s="31"/>
-      <c r="S40" s="33">
-        <v>16</v>
-      </c>
-      <c r="T40" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="S40" s="33"/>
+      <c r="T40" s="48"/>
       <c r="U40" s="33"/>
-      <c r="V40" s="67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="V40" s="67"/>
       <c r="W40" s="33"/>
       <c r="X40" s="34"/>
       <c r="Y40" s="33"/>
-      <c r="Z40" s="67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="Z40" s="67"/>
       <c r="AA40" s="33"/>
       <c r="AB40" s="34"/>
       <c r="AC40" s="33"/>
       <c r="AD40" s="37"/>
-      <c r="AE40" s="77">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
+      <c r="AE40" s="77"/>
       <c r="AF40" s="80"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
-      <c r="C41" s="61" t="s">
-        <v>108</v>
+      <c r="C41" s="88" t="s">
+        <v>117</v>
       </c>
       <c r="D41" s="56">
-        <v>38</v>
-      </c>
-      <c r="E41" s="56">
-        <v>12</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E41" s="56"/>
       <c r="F41" s="56">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
@@ -3878,43 +3893,35 @@
       <c r="P41" s="36"/>
       <c r="Q41" s="17"/>
       <c r="R41" s="31"/>
-      <c r="S41" s="33">
-        <v>3</v>
-      </c>
-      <c r="T41" s="48" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="S41" s="33"/>
+      <c r="T41" s="48"/>
       <c r="U41" s="33"/>
-      <c r="V41" s="67">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
+      <c r="V41" s="67"/>
       <c r="W41" s="33"/>
       <c r="X41" s="34"/>
       <c r="Y41" s="33"/>
-      <c r="Z41" s="67">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
+      <c r="Z41" s="67"/>
       <c r="AA41" s="33"/>
       <c r="AB41" s="34"/>
       <c r="AC41" s="33"/>
       <c r="AD41" s="37"/>
-      <c r="AE41" s="77">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
+      <c r="AE41" s="77"/>
       <c r="AF41" s="80"/>
     </row>
-    <row r="42" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
-      <c r="C42" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
+      <c r="C42" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="56">
+        <v>24</v>
+      </c>
+      <c r="E42" s="56">
+        <v>8</v>
+      </c>
+      <c r="F42" s="56">
+        <v>4</v>
+      </c>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
@@ -3945,14 +3952,16 @@
     <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="88" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D43" s="56">
-        <v>76</v>
-      </c>
-      <c r="E43" s="56"/>
+        <v>68</v>
+      </c>
+      <c r="E43" s="56">
+        <v>24</v>
+      </c>
       <c r="F43" s="56">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
@@ -3983,18 +3992,12 @@
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="C44" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="56">
-        <v>24</v>
-      </c>
-      <c r="E44" s="56">
-        <v>8</v>
-      </c>
-      <c r="F44" s="56">
-        <v>4</v>
-      </c>
+      <c r="C44" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
@@ -4024,18 +4027,14 @@
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="C45" s="88" t="s">
-        <v>119</v>
+      <c r="C45" s="89" t="s">
+        <v>120</v>
       </c>
       <c r="D45" s="56">
-        <v>68</v>
-      </c>
-      <c r="E45" s="56">
-        <v>24</v>
-      </c>
-      <c r="F45" s="56">
-        <v>16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
@@ -4065,10 +4064,12 @@
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
-      <c r="C46" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="56"/>
+      <c r="C46" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="56">
+        <v>1</v>
+      </c>
       <c r="E46" s="56"/>
       <c r="F46" s="56"/>
       <c r="G46" s="33"/>
@@ -4101,13 +4102,17 @@
     <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D47" s="56">
-        <v>1</v>
-      </c>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
+        <v>34</v>
+      </c>
+      <c r="E47" s="56">
+        <v>8</v>
+      </c>
+      <c r="F47" s="56">
+        <v>8</v>
+      </c>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
@@ -4138,13 +4143,17 @@
     <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="89" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D48" s="56">
-        <v>1</v>
-      </c>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
+        <v>67</v>
+      </c>
+      <c r="E48" s="56">
+        <v>40</v>
+      </c>
+      <c r="F48" s="56">
+        <v>20</v>
+      </c>
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
@@ -4175,16 +4184,16 @@
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="89" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D49" s="56">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E49" s="56">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F49" s="56">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
@@ -4214,19 +4223,14 @@
       <c r="AF49" s="80"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="56">
-        <v>67</v>
-      </c>
-      <c r="E50" s="56">
-        <v>40</v>
-      </c>
-      <c r="F50" s="56">
-        <v>20</v>
-      </c>
+      <c r="A50" s="83"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
@@ -4255,15 +4259,16 @@
       <c r="AF50" s="80"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="89" t="s">
-        <v>124</v>
+      <c r="A51" s="83"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="86" t="s">
+        <v>111</v>
       </c>
       <c r="D51" s="56">
+        <v>24</v>
+      </c>
+      <c r="E51" s="56">
         <v>8</v>
-      </c>
-      <c r="E51" s="56">
-        <v>4</v>
       </c>
       <c r="F51" s="56">
         <v>2</v>
@@ -4299,7 +4304,7 @@
       <c r="A52" s="83"/>
       <c r="B52" s="84"/>
       <c r="C52" s="86" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D52" s="56"/>
       <c r="E52" s="56"/>
@@ -4335,16 +4340,16 @@
       <c r="A53" s="83"/>
       <c r="B53" s="84"/>
       <c r="C53" s="86" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D53" s="56">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E53" s="56">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F53" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
@@ -4377,7 +4382,7 @@
       <c r="A54" s="83"/>
       <c r="B54" s="84"/>
       <c r="C54" s="86" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D54" s="56"/>
       <c r="E54" s="56"/>
@@ -4409,21 +4414,15 @@
       <c r="AE54" s="77"/>
       <c r="AF54" s="80"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="83"/>
       <c r="B55" s="84"/>
       <c r="C55" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="56">
-        <v>4</v>
-      </c>
-      <c r="E55" s="56">
-        <v>4</v>
-      </c>
-      <c r="F55" s="56">
-        <v>1</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
       <c r="I55" s="33"/>
@@ -4452,11 +4451,8 @@
       <c r="AF55" s="80"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="86" t="s">
-        <v>114</v>
-      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="56"/>
       <c r="E56" s="56"/>
       <c r="F56" s="56"/>
@@ -4487,13 +4483,12 @@
       <c r="AE56" s="77"/>
       <c r="AF56" s="80"/>
     </row>
-    <row r="57" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="56"/>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="56"/>
       <c r="F57" s="56"/>
       <c r="G57" s="33"/>
@@ -4509,24 +4504,38 @@
       <c r="Q57" s="17"/>
       <c r="R57" s="31"/>
       <c r="S57" s="33"/>
-      <c r="T57" s="48"/>
+      <c r="T57" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="U57" s="33"/>
-      <c r="V57" s="67"/>
+      <c r="V57" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="W57" s="33"/>
       <c r="X57" s="34"/>
       <c r="Y57" s="33"/>
-      <c r="Z57" s="67"/>
+      <c r="Z57" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AA57" s="33"/>
-      <c r="AB57" s="34"/>
+      <c r="AB57" s="51"/>
       <c r="AC57" s="33"/>
       <c r="AD57" s="37"/>
-      <c r="AE57" s="77"/>
+      <c r="AE57" s="77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="AF57" s="80"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="56"/>
+      <c r="C58" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="18"/>
       <c r="E58" s="56"/>
       <c r="F58" s="56"/>
       <c r="G58" s="33"/>
@@ -4537,37 +4546,62 @@
       <c r="L58" s="33"/>
       <c r="M58" s="33"/>
       <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
+      <c r="O58" s="33">
+        <v>5</v>
+      </c>
       <c r="P58" s="36"/>
       <c r="Q58" s="17"/>
       <c r="R58" s="31"/>
       <c r="S58" s="33"/>
-      <c r="T58" s="48"/>
+      <c r="T58" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="U58" s="33"/>
-      <c r="V58" s="67"/>
+      <c r="V58" s="67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="W58" s="33"/>
-      <c r="X58" s="34"/>
+      <c r="X58" s="48" t="str">
+        <f t="shared" ref="X58:X71" si="9">IF(W58&gt;0,V58-W58,"")</f>
+        <v/>
+      </c>
       <c r="Y58" s="33"/>
-      <c r="Z58" s="67"/>
+      <c r="Z58" s="67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AA58" s="33"/>
-      <c r="AB58" s="34"/>
+      <c r="AB58" s="48" t="str">
+        <f t="shared" ref="AB58:AB71" si="10">IF(AA58&gt;0,Z58-AA58,"")</f>
+        <v/>
+      </c>
       <c r="AC58" s="33"/>
-      <c r="AD58" s="37"/>
-      <c r="AE58" s="77"/>
+      <c r="AD58" s="29">
+        <f t="shared" ref="AD58:AD63" si="11">R58+V58+Z58</f>
+        <v>0</v>
+      </c>
+      <c r="AE58" s="77">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
       <c r="AF58" s="80"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="24"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="61" t="s">
+        <v>65</v>
+      </c>
       <c r="D59" s="18"/>
       <c r="E59" s="56"/>
       <c r="F59" s="56"/>
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
+      <c r="J59" s="33">
+        <v>1</v>
+      </c>
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
       <c r="M59" s="33"/>
@@ -4587,26 +4621,29 @@
         <v>0</v>
       </c>
       <c r="W59" s="33"/>
-      <c r="X59" s="34"/>
+      <c r="X59" s="48"/>
       <c r="Y59" s="33"/>
       <c r="Z59" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA59" s="33"/>
-      <c r="AB59" s="51"/>
+      <c r="AB59" s="48"/>
       <c r="AC59" s="33"/>
-      <c r="AD59" s="37"/>
+      <c r="AD59" s="29">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="AE59" s="77">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF59" s="80"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
-      <c r="C60" s="60" t="s">
-        <v>48</v>
+      <c r="C60" s="61" t="s">
+        <v>66</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="56"/>
@@ -4614,14 +4651,14 @@
       <c r="G60" s="33"/>
       <c r="H60" s="33"/>
       <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
+      <c r="J60" s="33">
+        <v>5</v>
+      </c>
       <c r="K60" s="33"/>
       <c r="L60" s="33"/>
       <c r="M60" s="33"/>
       <c r="N60" s="33"/>
-      <c r="O60" s="33">
-        <v>5</v>
-      </c>
+      <c r="O60" s="33"/>
       <c r="P60" s="36"/>
       <c r="Q60" s="17"/>
       <c r="R60" s="31"/>
@@ -4636,23 +4673,17 @@
         <v>0</v>
       </c>
       <c r="W60" s="33"/>
-      <c r="X60" s="48" t="str">
-        <f t="shared" ref="X60:X73" si="9">IF(W60&gt;0,V60-W60,"")</f>
-        <v/>
-      </c>
+      <c r="X60" s="48"/>
       <c r="Y60" s="33"/>
       <c r="Z60" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA60" s="33"/>
-      <c r="AB60" s="48" t="str">
-        <f t="shared" ref="AB60:AB73" si="10">IF(AA60&gt;0,Z60-AA60,"")</f>
-        <v/>
-      </c>
+      <c r="AB60" s="48"/>
       <c r="AC60" s="33"/>
       <c r="AD60" s="29">
-        <f t="shared" ref="AD60:AD65" si="11">R60+V60+Z60</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE60" s="77">
@@ -4664,111 +4695,107 @@
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33">
-        <v>1</v>
-      </c>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="36"/>
+        <v>50</v>
+      </c>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="26"/>
       <c r="Q61" s="17"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="33"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="27"/>
       <c r="T61" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U61" s="33"/>
       <c r="V61" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W61" s="33"/>
+      <c r="W61" s="27">
+        <v>3</v>
+      </c>
       <c r="X61" s="48"/>
-      <c r="Y61" s="33"/>
       <c r="Z61" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA61" s="33"/>
+      <c r="AA61" s="27"/>
       <c r="AB61" s="48"/>
-      <c r="AC61" s="33"/>
+      <c r="AC61" s="30"/>
       <c r="AD61" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE61" s="77">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AF61" s="80"/>
+        <v>3</v>
+      </c>
+      <c r="AF61" s="79"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33">
-        <v>5</v>
-      </c>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="36"/>
+        <v>63</v>
+      </c>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="26"/>
       <c r="Q62" s="17"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="33"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="27"/>
       <c r="T62" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U62" s="33"/>
       <c r="V62" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W62" s="33"/>
+      <c r="W62" s="27"/>
       <c r="X62" s="48"/>
-      <c r="Y62" s="33"/>
       <c r="Z62" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA62" s="33"/>
+      <c r="AA62" s="27"/>
       <c r="AB62" s="48"/>
-      <c r="AC62" s="33"/>
+      <c r="AC62" s="30"/>
       <c r="AD62" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE62" s="77">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AF62" s="80"/>
+        <v>1</v>
+      </c>
+      <c r="AF62" s="79"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="61" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D63" s="57"/>
       <c r="E63" s="57"/>
@@ -4779,7 +4806,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="45"/>
+      <c r="M63" s="59"/>
       <c r="N63" s="45"/>
       <c r="O63" s="25"/>
       <c r="P63" s="26"/>
@@ -4795,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="27">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="X63" s="48"/>
       <c r="Z63" s="67">
@@ -4811,114 +4838,117 @@
       </c>
       <c r="AE63" s="77">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="AF63" s="79"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
-      <c r="C64" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1">
-        <v>1</v>
-      </c>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="26"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="36"/>
       <c r="Q64" s="17"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="27"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="33"/>
       <c r="T64" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="U64" s="33"/>
       <c r="V64" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W64" s="27"/>
+      <c r="W64" s="33"/>
       <c r="X64" s="48"/>
+      <c r="Y64" s="33"/>
       <c r="Z64" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA64" s="27"/>
+      <c r="AA64" s="33"/>
       <c r="AB64" s="48"/>
-      <c r="AC64" s="30"/>
-      <c r="AD64" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AC64" s="33"/>
+      <c r="AD64" s="29"/>
       <c r="AE64" s="77">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AF64" s="79"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="80"/>
     </row>
     <row r="65" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-      <c r="C65" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="26"/>
+      <c r="B65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="36"/>
       <c r="Q65" s="17"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="27"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="33"/>
       <c r="T65" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
+      <c r="U65" s="33"/>
       <c r="V65" s="67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W65" s="27">
-        <v>22</v>
-      </c>
-      <c r="X65" s="48"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y65" s="33"/>
       <c r="Z65" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="48"/>
-      <c r="AC65" s="30"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AC65" s="33"/>
       <c r="AD65" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AD65:AD71" si="12">R65+V65+Z65</f>
         <v>0</v>
       </c>
       <c r="AE65" s="77">
         <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="AF65" s="79"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="80"/>
     </row>
     <row r="66" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="18"/>
+      <c r="C66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="56"/>
       <c r="E66" s="56"/>
       <c r="F66" s="56"/>
       <c r="G66" s="33"/>
@@ -4933,7 +4963,9 @@
       <c r="P66" s="36"/>
       <c r="Q66" s="17"/>
       <c r="R66" s="31"/>
-      <c r="S66" s="33"/>
+      <c r="S66" s="55">
+        <v>6</v>
+      </c>
       <c r="T66" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4944,36 +4976,49 @@
         <v>0</v>
       </c>
       <c r="W66" s="33"/>
-      <c r="X66" s="48"/>
+      <c r="X66" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="Y66" s="33"/>
       <c r="Z66" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA66" s="33"/>
-      <c r="AB66" s="48"/>
+      <c r="AB66" s="48" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="AC66" s="33"/>
-      <c r="AD66" s="29"/>
+      <c r="AD66" s="29">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="AE66" s="77">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF66" s="80"/>
     </row>
     <row r="67" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="24"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D67" s="56"/>
       <c r="E67" s="56"/>
       <c r="F67" s="56"/>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
+      <c r="I67" s="33">
+        <v>1</v>
+      </c>
       <c r="J67" s="33"/>
       <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
+      <c r="L67" s="33">
+        <v>4</v>
+      </c>
       <c r="M67" s="33"/>
       <c r="N67" s="33"/>
       <c r="O67" s="33"/>
@@ -5007,38 +5052,40 @@
       </c>
       <c r="AC67" s="33"/>
       <c r="AD67" s="29">
-        <f t="shared" ref="AD67:AD73" si="12">R67+V67+Z67</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE67" s="77">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF67" s="80"/>
     </row>
     <row r="68" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D68" s="56"/>
       <c r="E68" s="56"/>
       <c r="F68" s="56"/>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
+      <c r="I68" s="33">
+        <v>25</v>
+      </c>
       <c r="J68" s="33"/>
       <c r="K68" s="33"/>
       <c r="L68" s="33"/>
       <c r="M68" s="33"/>
       <c r="N68" s="33"/>
       <c r="O68" s="33"/>
-      <c r="P68" s="36"/>
+      <c r="P68" s="36">
+        <v>1</v>
+      </c>
       <c r="Q68" s="17"/>
       <c r="R68" s="31"/>
-      <c r="S68" s="55">
-        <v>6</v>
-      </c>
+      <c r="S68" s="33"/>
       <c r="T68" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5070,28 +5117,24 @@
       </c>
       <c r="AE68" s="77">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AF68" s="80"/>
     </row>
     <row r="69" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
       <c r="F69" s="56"/>
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
-      <c r="I69" s="33">
-        <v>1</v>
-      </c>
+      <c r="I69" s="33"/>
       <c r="J69" s="33"/>
       <c r="K69" s="33"/>
-      <c r="L69" s="33">
-        <v>4</v>
-      </c>
+      <c r="L69" s="33"/>
       <c r="M69" s="33"/>
       <c r="N69" s="33"/>
       <c r="O69" s="33"/>
@@ -5108,9 +5151,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W69" s="33"/>
+      <c r="W69" s="33">
+        <v>180</v>
+      </c>
       <c r="X69" s="48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="X69" si="13">IF(V69&gt;0,IF(W69&gt;0,V69-W69,""),"")</f>
         <v/>
       </c>
       <c r="Y69" s="33"/>
@@ -5118,9 +5163,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA69" s="33"/>
+      <c r="AA69" s="33">
+        <v>21</v>
+      </c>
       <c r="AB69" s="48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AB69:AB70" si="14">IF(Z69&gt;0,IF(AA69&gt;0,Z69-AA69,""),"")</f>
         <v/>
       </c>
       <c r="AC69" s="33"/>
@@ -5130,32 +5177,28 @@
       </c>
       <c r="AE69" s="77">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="AF69" s="80"/>
     </row>
     <row r="70" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D70" s="56"/>
       <c r="E70" s="56"/>
       <c r="F70" s="56"/>
       <c r="G70" s="33"/>
       <c r="H70" s="33"/>
-      <c r="I70" s="33">
-        <v>25</v>
-      </c>
+      <c r="I70" s="33"/>
       <c r="J70" s="33"/>
       <c r="K70" s="33"/>
       <c r="L70" s="33"/>
       <c r="M70" s="33"/>
       <c r="N70" s="33"/>
       <c r="O70" s="33"/>
-      <c r="P70" s="36">
-        <v>1</v>
-      </c>
+      <c r="P70" s="36"/>
       <c r="Q70" s="17"/>
       <c r="R70" s="31"/>
       <c r="S70" s="33"/>
@@ -5178,9 +5221,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA70" s="33"/>
+      <c r="AA70" s="33">
+        <v>184</v>
+      </c>
       <c r="AB70" s="48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AC70" s="33"/>
@@ -5190,21 +5235,23 @@
       </c>
       <c r="AE70" s="77">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="AF70" s="80"/>
     </row>
     <row r="71" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
       <c r="F71" s="56"/>
       <c r="G71" s="33"/>
       <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
+      <c r="I71" s="33">
+        <v>1</v>
+      </c>
       <c r="J71" s="33"/>
       <c r="K71" s="33"/>
       <c r="L71" s="33"/>
@@ -5224,11 +5271,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W71" s="33">
-        <v>180</v>
-      </c>
+      <c r="W71" s="33"/>
       <c r="X71" s="48" t="str">
-        <f t="shared" ref="X71" si="13">IF(V71&gt;0,IF(W71&gt;0,V71-W71,""),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Y71" s="33"/>
@@ -5236,11 +5281,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA71" s="33">
-        <v>21</v>
-      </c>
+      <c r="AA71" s="33"/>
       <c r="AB71" s="48" t="str">
-        <f t="shared" ref="AB71:AB72" si="14">IF(Z71&gt;0,IF(AA71&gt;0,Z71-AA71,""),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC71" s="33"/>
@@ -5250,21 +5293,23 @@
       </c>
       <c r="AE71" s="77">
         <f t="shared" si="6"/>
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="AF71" s="80"/>
     </row>
     <row r="72" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
-      <c r="C72" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D72" s="56"/>
+      <c r="C72" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="18"/>
       <c r="E72" s="56"/>
       <c r="F72" s="56"/>
       <c r="G72" s="33"/>
       <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
+      <c r="I72" s="33">
+        <v>6</v>
+      </c>
       <c r="J72" s="33"/>
       <c r="K72" s="33"/>
       <c r="L72" s="33"/>
@@ -5285,46 +5330,33 @@
         <v>0</v>
       </c>
       <c r="W72" s="33"/>
-      <c r="X72" s="48" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+      <c r="X72" s="48"/>
       <c r="Y72" s="33"/>
       <c r="Z72" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA72" s="33">
-        <v>184</v>
-      </c>
-      <c r="AB72" s="48" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
+      <c r="AA72" s="33"/>
+      <c r="AB72" s="48"/>
       <c r="AC72" s="33"/>
-      <c r="AD72" s="29">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AD72" s="37"/>
       <c r="AE72" s="77">
         <f t="shared" si="6"/>
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="AF72" s="80"/>
     </row>
     <row r="73" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
-      <c r="C73" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="56"/>
+      <c r="C73" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="18"/>
       <c r="E73" s="56"/>
       <c r="F73" s="56"/>
       <c r="G73" s="33"/>
       <c r="H73" s="33"/>
-      <c r="I73" s="33">
-        <v>1</v>
-      </c>
+      <c r="I73" s="33"/>
       <c r="J73" s="33"/>
       <c r="K73" s="33"/>
       <c r="L73" s="33"/>
@@ -5345,47 +5377,45 @@
         <v>0</v>
       </c>
       <c r="W73" s="33"/>
-      <c r="X73" s="48" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+      <c r="X73" s="48"/>
       <c r="Y73" s="33"/>
       <c r="Z73" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA73" s="33"/>
+      <c r="AA73" s="33">
+        <v>16</v>
+      </c>
       <c r="AB73" s="48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AB73" si="15">IF(Z73&gt;0,IF(AA73&gt;0,Z73-AA73,""),"")</f>
         <v/>
       </c>
       <c r="AC73" s="33"/>
-      <c r="AD73" s="29">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="AD73" s="37"/>
       <c r="AE73" s="77">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AF73" s="80"/>
     </row>
     <row r="74" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="61" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="56"/>
       <c r="F74" s="56"/>
       <c r="G74" s="33"/>
       <c r="H74" s="33"/>
-      <c r="I74" s="33">
-        <v>6</v>
-      </c>
-      <c r="J74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33">
+        <v>10.5</v>
+      </c>
       <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
+      <c r="L74" s="33">
+        <v>11</v>
+      </c>
       <c r="M74" s="33"/>
       <c r="N74" s="33"/>
       <c r="O74" s="33"/>
@@ -5402,7 +5432,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W74" s="33"/>
+      <c r="W74" s="33">
+        <v>8</v>
+      </c>
       <c r="X74" s="48"/>
       <c r="Y74" s="33"/>
       <c r="Z74" s="67">
@@ -5412,17 +5444,17 @@
       <c r="AA74" s="33"/>
       <c r="AB74" s="48"/>
       <c r="AC74" s="33"/>
-      <c r="AD74" s="37"/>
+      <c r="AD74" s="29"/>
       <c r="AE74" s="77">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>29.5</v>
       </c>
       <c r="AF74" s="80"/>
     </row>
     <row r="75" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
       <c r="C75" s="61" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="56"/>
@@ -5449,53 +5481,48 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W75" s="33"/>
+      <c r="W75" s="33">
+        <v>13</v>
+      </c>
       <c r="X75" s="48"/>
       <c r="Y75" s="33"/>
       <c r="Z75" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA75" s="33">
-        <v>16</v>
-      </c>
-      <c r="AB75" s="48" t="str">
-        <f t="shared" ref="AB75" si="15">IF(Z75&gt;0,IF(AA75&gt;0,Z75-AA75,""),"")</f>
-        <v/>
-      </c>
+      <c r="AA75" s="33"/>
+      <c r="AB75" s="48"/>
       <c r="AC75" s="33"/>
-      <c r="AD75" s="37"/>
+      <c r="AD75" s="29"/>
       <c r="AE75" s="77">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF75" s="80"/>
     </row>
     <row r="76" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="D76" s="56"/>
       <c r="E76" s="56"/>
       <c r="F76" s="56"/>
       <c r="G76" s="33"/>
       <c r="H76" s="33"/>
       <c r="I76" s="33"/>
-      <c r="J76" s="33">
-        <v>10.5</v>
-      </c>
+      <c r="J76" s="33"/>
       <c r="K76" s="33"/>
-      <c r="L76" s="33">
-        <v>11</v>
-      </c>
+      <c r="L76" s="33"/>
       <c r="M76" s="33"/>
-      <c r="N76" s="33"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="36"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
       <c r="Q76" s="17"/>
       <c r="R76" s="31"/>
-      <c r="S76" s="33"/>
+      <c r="S76" s="33">
+        <v>15</v>
+      </c>
       <c r="T76" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5505,9 +5532,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W76" s="33">
-        <v>8</v>
-      </c>
+      <c r="W76" s="33"/>
       <c r="X76" s="48"/>
       <c r="Y76" s="33"/>
       <c r="Z76" s="67">
@@ -5520,31 +5545,33 @@
       <c r="AD76" s="29"/>
       <c r="AE76" s="77">
         <f t="shared" si="6"/>
-        <v>29.5</v>
+        <v>15</v>
       </c>
       <c r="AF76" s="80"/>
     </row>
     <row r="77" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
       <c r="C77" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="D77" s="56"/>
       <c r="E77" s="56"/>
       <c r="F77" s="56"/>
       <c r="G77" s="33"/>
       <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
+      <c r="I77" s="33">
+        <v>4</v>
+      </c>
       <c r="J77" s="33"/>
       <c r="K77" s="33"/>
       <c r="L77" s="33"/>
       <c r="M77" s="33"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="33"/>
-      <c r="P77" s="36"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
       <c r="Q77" s="17"/>
       <c r="R77" s="31"/>
-      <c r="S77" s="33"/>
+      <c r="S77" s="55"/>
       <c r="T77" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5554,9 +5581,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W77" s="33">
-        <v>13</v>
-      </c>
+      <c r="W77" s="33"/>
       <c r="X77" s="48"/>
       <c r="Y77" s="33"/>
       <c r="Z77" s="67">
@@ -5569,14 +5594,14 @@
       <c r="AD77" s="29"/>
       <c r="AE77" s="77">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AF77" s="80"/>
     </row>
     <row r="78" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="C78" s="61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D78" s="56"/>
       <c r="E78" s="56"/>
@@ -5588,14 +5613,12 @@
       <c r="K78" s="33"/>
       <c r="L78" s="33"/>
       <c r="M78" s="33"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="27"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="36"/>
       <c r="Q78" s="17"/>
       <c r="R78" s="31"/>
-      <c r="S78" s="33">
-        <v>15</v>
-      </c>
+      <c r="S78" s="33"/>
       <c r="T78" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5605,7 +5628,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W78" s="33"/>
+      <c r="W78" s="33">
+        <v>34</v>
+      </c>
       <c r="X78" s="48"/>
       <c r="Y78" s="33"/>
       <c r="Z78" s="67">
@@ -5618,33 +5643,31 @@
       <c r="AD78" s="29"/>
       <c r="AE78" s="77">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AF78" s="80"/>
     </row>
     <row r="79" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D79" s="56"/>
       <c r="E79" s="56"/>
       <c r="F79" s="56"/>
       <c r="G79" s="33"/>
       <c r="H79" s="33"/>
-      <c r="I79" s="33">
-        <v>4</v>
-      </c>
+      <c r="I79" s="33"/>
       <c r="J79" s="33"/>
       <c r="K79" s="33"/>
       <c r="L79" s="33"/>
       <c r="M79" s="33"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="27"/>
-      <c r="P79" s="27"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33"/>
+      <c r="P79" s="36"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="31"/>
-      <c r="S79" s="55"/>
+      <c r="S79" s="33"/>
       <c r="T79" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5654,7 +5677,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W79" s="33"/>
+      <c r="W79" s="33">
+        <v>9</v>
+      </c>
       <c r="X79" s="48"/>
       <c r="Y79" s="33"/>
       <c r="Z79" s="67">
@@ -5667,15 +5692,15 @@
       <c r="AD79" s="29"/>
       <c r="AE79" s="77">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AF79" s="80"/>
     </row>
     <row r="80" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
-      <c r="C80" s="61" t="s">
-        <v>51</v>
-      </c>
+      <c r="B80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="24"/>
       <c r="D80" s="56"/>
       <c r="E80" s="56"/>
       <c r="F80" s="56"/>
@@ -5701,29 +5726,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W80" s="33">
-        <v>34</v>
-      </c>
-      <c r="X80" s="48"/>
+      <c r="W80" s="33"/>
+      <c r="X80" s="34"/>
       <c r="Y80" s="33"/>
       <c r="Z80" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA80" s="33"/>
-      <c r="AB80" s="48"/>
+      <c r="AB80" s="34"/>
       <c r="AC80" s="33"/>
-      <c r="AD80" s="29"/>
+      <c r="AD80" s="37"/>
       <c r="AE80" s="77">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AF80" s="80"/>
     </row>
     <row r="81" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
-      <c r="C81" s="61" t="s">
-        <v>65</v>
+      <c r="C81" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="D81" s="56"/>
       <c r="E81" s="56"/>
@@ -5736,8 +5759,12 @@
       <c r="L81" s="33"/>
       <c r="M81" s="33"/>
       <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="36"/>
+      <c r="O81" s="33">
+        <v>22</v>
+      </c>
+      <c r="P81" s="36">
+        <v>6</v>
+      </c>
       <c r="Q81" s="17"/>
       <c r="R81" s="31"/>
       <c r="S81" s="33"/>
@@ -5750,46 +5777,50 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W81" s="33">
-        <v>9</v>
-      </c>
-      <c r="X81" s="48"/>
+      <c r="W81" s="33"/>
+      <c r="X81" s="34"/>
       <c r="Y81" s="33"/>
       <c r="Z81" s="67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA81" s="33"/>
-      <c r="AB81" s="48"/>
+      <c r="AB81" s="34"/>
       <c r="AC81" s="33"/>
-      <c r="AD81" s="29"/>
+      <c r="AD81" s="37"/>
       <c r="AE81" s="77">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AF81" s="80"/>
     </row>
     <row r="82" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="24"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="D82" s="56"/>
       <c r="E82" s="56"/>
       <c r="F82" s="56"/>
       <c r="G82" s="33"/>
       <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
+      <c r="I82" s="33">
+        <v>1</v>
+      </c>
       <c r="J82" s="33"/>
       <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
+      <c r="L82" s="33">
+        <v>92</v>
+      </c>
       <c r="M82" s="33"/>
       <c r="N82" s="33"/>
       <c r="O82" s="33"/>
       <c r="P82" s="36"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="31"/>
-      <c r="S82" s="33"/>
+      <c r="S82" s="33">
+        <v>2</v>
+      </c>
       <c r="T82" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5812,14 +5843,14 @@
       <c r="AD82" s="37"/>
       <c r="AE82" s="77">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF82" s="80"/>
     </row>
     <row r="83" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
       <c r="C83" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D83" s="56"/>
       <c r="E83" s="56"/>
@@ -5832,15 +5863,13 @@
       <c r="L83" s="33"/>
       <c r="M83" s="33"/>
       <c r="N83" s="33"/>
-      <c r="O83" s="33">
-        <v>22</v>
-      </c>
-      <c r="P83" s="36">
-        <v>6</v>
-      </c>
+      <c r="O83" s="33"/>
+      <c r="P83" s="36"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="31"/>
-      <c r="S83" s="33"/>
+      <c r="S83" s="33">
+        <v>3</v>
+      </c>
       <c r="T83" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5863,14 +5892,14 @@
       <c r="AD83" s="37"/>
       <c r="AE83" s="77">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AF83" s="80"/>
     </row>
     <row r="84" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="C84" s="24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D84" s="56"/>
       <c r="E84" s="56"/>
@@ -5878,22 +5907,18 @@
       <c r="G84" s="33"/>
       <c r="H84" s="33"/>
       <c r="I84" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" s="33"/>
       <c r="K84" s="33"/>
-      <c r="L84" s="33">
-        <v>92</v>
-      </c>
+      <c r="L84" s="33"/>
       <c r="M84" s="33"/>
       <c r="N84" s="33"/>
       <c r="O84" s="33"/>
       <c r="P84" s="36"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="31"/>
-      <c r="S84" s="33">
-        <v>2</v>
-      </c>
+      <c r="S84" s="33"/>
       <c r="T84" s="48" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5903,7 +5928,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W84" s="33"/>
+      <c r="W84" s="33">
+        <v>24</v>
+      </c>
       <c r="X84" s="34"/>
       <c r="Y84" s="33"/>
       <c r="Z84" s="67">
@@ -5916,14 +5943,14 @@
       <c r="AD84" s="37"/>
       <c r="AE84" s="77">
         <f t="shared" si="6"/>
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="AF84" s="80"/>
     </row>
     <row r="85" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
       <c r="C85" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D85" s="56"/>
       <c r="E85" s="56"/>
@@ -5941,10 +5968,10 @@
       <c r="Q85" s="17"/>
       <c r="R85" s="31"/>
       <c r="S85" s="33">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="T85" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="T85:T115" si="16">IF(R85&gt;0,IF(S85&gt;0,R85-S85,""),"")</f>
         <v/>
       </c>
       <c r="U85" s="33"/>
@@ -5952,11 +5979,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W85" s="33"/>
+      <c r="W85" s="33">
+        <v>6</v>
+      </c>
       <c r="X85" s="34"/>
       <c r="Y85" s="33"/>
       <c r="Z85" s="67">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Z85:Z115" si="17">F85</f>
         <v>0</v>
       </c>
       <c r="AA85" s="33"/>
@@ -5965,23 +5994,21 @@
       <c r="AD85" s="37"/>
       <c r="AE85" s="77">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="AF85" s="80"/>
     </row>
     <row r="86" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="24" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D86" s="56"/>
       <c r="E86" s="56"/>
       <c r="F86" s="56"/>
       <c r="G86" s="33"/>
       <c r="H86" s="33"/>
-      <c r="I86" s="33">
-        <v>3</v>
-      </c>
+      <c r="I86" s="33"/>
       <c r="J86" s="33"/>
       <c r="K86" s="33"/>
       <c r="L86" s="33"/>
@@ -5993,7 +6020,7 @@
       <c r="R86" s="31"/>
       <c r="S86" s="33"/>
       <c r="T86" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U86" s="33"/>
@@ -6002,12 +6029,12 @@
         <v>0</v>
       </c>
       <c r="W86" s="33">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="X86" s="34"/>
       <c r="Y86" s="33"/>
       <c r="Z86" s="67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA86" s="33"/>
@@ -6016,14 +6043,14 @@
       <c r="AD86" s="37"/>
       <c r="AE86" s="77">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AF86" s="80"/>
     </row>
     <row r="87" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D87" s="56"/>
       <c r="E87" s="56"/>
@@ -6033,48 +6060,50 @@
       <c r="I87" s="33"/>
       <c r="J87" s="33"/>
       <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
+      <c r="L87" s="33">
+        <v>140</v>
+      </c>
       <c r="M87" s="33"/>
       <c r="N87" s="33"/>
-      <c r="O87" s="33"/>
+      <c r="O87" s="33">
+        <v>4</v>
+      </c>
       <c r="P87" s="36"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="31"/>
-      <c r="S87" s="33">
-        <v>44</v>
-      </c>
+      <c r="S87" s="33"/>
       <c r="T87" s="48" t="str">
-        <f t="shared" ref="T87:T117" si="16">IF(R87&gt;0,IF(S87&gt;0,R87-S87,""),"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U87" s="33"/>
       <c r="V87" s="67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W87" s="33">
-        <v>6</v>
-      </c>
+        <f t="shared" ref="V87:V115" si="18">E87</f>
+        <v>0</v>
+      </c>
+      <c r="W87" s="33"/>
       <c r="X87" s="34"/>
       <c r="Y87" s="33"/>
       <c r="Z87" s="67">
-        <f t="shared" ref="Z87:Z117" si="17">F87</f>
-        <v>0</v>
-      </c>
-      <c r="AA87" s="33"/>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA87" s="33">
+        <v>2</v>
+      </c>
       <c r="AB87" s="34"/>
       <c r="AC87" s="33"/>
       <c r="AD87" s="37"/>
       <c r="AE87" s="77">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="AF87" s="80"/>
     </row>
     <row r="88" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D88" s="56"/>
       <c r="E88" s="56"/>
@@ -6098,12 +6127,10 @@
       </c>
       <c r="U88" s="33"/>
       <c r="V88" s="67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W88" s="33">
-        <v>1</v>
-      </c>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W88" s="33"/>
       <c r="X88" s="34"/>
       <c r="Y88" s="33"/>
       <c r="Z88" s="67">
@@ -6115,15 +6142,15 @@
       <c r="AC88" s="33"/>
       <c r="AD88" s="37"/>
       <c r="AE88" s="77">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="AE88:AE115" si="19">G88+I88+J88+L88+M88+N88+O88+P88+Q88+S88+W88+AA88</f>
+        <v>0</v>
       </c>
       <c r="AF88" s="80"/>
     </row>
     <row r="89" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
-      <c r="C89" s="24" t="s">
-        <v>52</v>
+      <c r="C89" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="D89" s="56"/>
       <c r="E89" s="56"/>
@@ -6133,15 +6160,15 @@
       <c r="I89" s="33"/>
       <c r="J89" s="33"/>
       <c r="K89" s="33"/>
-      <c r="L89" s="33">
-        <v>140</v>
-      </c>
+      <c r="L89" s="33"/>
       <c r="M89" s="33"/>
       <c r="N89" s="33"/>
       <c r="O89" s="33">
-        <v>4</v>
-      </c>
-      <c r="P89" s="36"/>
+        <v>6</v>
+      </c>
+      <c r="P89" s="36">
+        <v>7</v>
+      </c>
       <c r="Q89" s="17"/>
       <c r="R89" s="31"/>
       <c r="S89" s="33"/>
@@ -6151,7 +6178,7 @@
       </c>
       <c r="U89" s="33"/>
       <c r="V89" s="67">
-        <f t="shared" ref="V89:V117" si="18">E89</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W89" s="33"/>
@@ -6161,22 +6188,20 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA89" s="33">
-        <v>2</v>
-      </c>
+      <c r="AA89" s="33"/>
       <c r="AB89" s="34"/>
       <c r="AC89" s="33"/>
       <c r="AD89" s="37"/>
       <c r="AE89" s="77">
-        <f t="shared" si="6"/>
-        <v>146</v>
+        <f t="shared" si="19"/>
+        <v>13</v>
       </c>
       <c r="AF89" s="80"/>
     </row>
     <row r="90" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
-      <c r="C90" s="24" t="s">
-        <v>53</v>
+      <c r="C90" s="61" t="s">
+        <v>50</v>
       </c>
       <c r="D90" s="56"/>
       <c r="E90" s="56"/>
@@ -6210,20 +6235,22 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA90" s="33"/>
+      <c r="AA90" s="33">
+        <v>1</v>
+      </c>
       <c r="AB90" s="34"/>
       <c r="AC90" s="33"/>
       <c r="AD90" s="37"/>
       <c r="AE90" s="77">
-        <f t="shared" ref="AE90:AE117" si="19">G90+I90+J90+L90+M90+N90+O90+P90+Q90+S90+W90+AA90</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="AF90" s="80"/>
     </row>
     <row r="91" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
       <c r="C91" s="61" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D91" s="56"/>
       <c r="E91" s="56"/>
@@ -6233,15 +6260,13 @@
       <c r="I91" s="33"/>
       <c r="J91" s="33"/>
       <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
+      <c r="L91" s="33">
+        <v>40</v>
+      </c>
       <c r="M91" s="33"/>
       <c r="N91" s="33"/>
-      <c r="O91" s="33">
-        <v>6</v>
-      </c>
-      <c r="P91" s="36">
-        <v>7</v>
-      </c>
+      <c r="O91" s="33"/>
+      <c r="P91" s="36"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="31"/>
       <c r="S91" s="33"/>
@@ -6267,21 +6292,23 @@
       <c r="AD91" s="37"/>
       <c r="AE91" s="77">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AF91" s="80"/>
     </row>
     <row r="92" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="61" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D92" s="56"/>
       <c r="E92" s="56"/>
       <c r="F92" s="56"/>
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
+      <c r="I92" s="33">
+        <v>1</v>
+      </c>
       <c r="J92" s="33"/>
       <c r="K92" s="33"/>
       <c r="L92" s="33"/>
@@ -6308,9 +6335,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA92" s="33">
-        <v>1</v>
-      </c>
+      <c r="AA92" s="33"/>
       <c r="AB92" s="34"/>
       <c r="AC92" s="33"/>
       <c r="AD92" s="37"/>
@@ -6323,7 +6348,7 @@
     <row r="93" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" s="61" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D93" s="56"/>
       <c r="E93" s="56"/>
@@ -6333,12 +6358,12 @@
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
       <c r="K93" s="33"/>
-      <c r="L93" s="33">
-        <v>40</v>
-      </c>
+      <c r="L93" s="33"/>
       <c r="M93" s="33"/>
       <c r="N93" s="33"/>
-      <c r="O93" s="33"/>
+      <c r="O93" s="33">
+        <v>19</v>
+      </c>
       <c r="P93" s="36"/>
       <c r="Q93" s="17"/>
       <c r="R93" s="31"/>
@@ -6359,31 +6384,33 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA93" s="33"/>
+      <c r="AA93" s="33">
+        <v>13</v>
+      </c>
       <c r="AB93" s="34"/>
       <c r="AC93" s="33"/>
       <c r="AD93" s="37"/>
       <c r="AE93" s="77">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AF93" s="80"/>
     </row>
     <row r="94" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="61" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D94" s="56"/>
       <c r="E94" s="56"/>
       <c r="F94" s="56"/>
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
-      <c r="I94" s="33">
-        <v>1</v>
-      </c>
+      <c r="I94" s="33"/>
       <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
+      <c r="K94" s="33">
+        <v>6</v>
+      </c>
       <c r="L94" s="33"/>
       <c r="M94" s="33"/>
       <c r="N94" s="33"/>
@@ -6414,14 +6441,14 @@
       <c r="AD94" s="37"/>
       <c r="AE94" s="77">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF94" s="80"/>
     </row>
     <row r="95" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" s="61" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D95" s="56"/>
       <c r="E95" s="56"/>
@@ -6430,13 +6457,13 @@
       <c r="H95" s="33"/>
       <c r="I95" s="33"/>
       <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
+      <c r="K95" s="33">
+        <v>7</v>
+      </c>
       <c r="L95" s="33"/>
       <c r="M95" s="33"/>
       <c r="N95" s="33"/>
-      <c r="O95" s="33">
-        <v>19</v>
-      </c>
+      <c r="O95" s="33"/>
       <c r="P95" s="36"/>
       <c r="Q95" s="17"/>
       <c r="R95" s="31"/>
@@ -6451,28 +6478,26 @@
         <v>0</v>
       </c>
       <c r="W95" s="33"/>
-      <c r="X95" s="34"/>
+      <c r="X95" s="51"/>
       <c r="Y95" s="33"/>
       <c r="Z95" s="67">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA95" s="33">
-        <v>13</v>
-      </c>
-      <c r="AB95" s="34"/>
+      <c r="AA95" s="33"/>
+      <c r="AB95" s="51"/>
       <c r="AC95" s="33"/>
       <c r="AD95" s="37"/>
       <c r="AE95" s="77">
         <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="AF95" s="80"/>
+        <v>0</v>
+      </c>
+      <c r="AF95" s="79"/>
     </row>
     <row r="96" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D96" s="56"/>
       <c r="E96" s="56"/>
@@ -6481,10 +6506,10 @@
       <c r="H96" s="33"/>
       <c r="I96" s="33"/>
       <c r="J96" s="33"/>
-      <c r="K96" s="33">
-        <v>6</v>
-      </c>
-      <c r="L96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="33">
+        <v>148</v>
+      </c>
       <c r="M96" s="33"/>
       <c r="N96" s="33"/>
       <c r="O96" s="33"/>
@@ -6502,27 +6527,29 @@
         <v>0</v>
       </c>
       <c r="W96" s="33"/>
-      <c r="X96" s="34"/>
+      <c r="X96" s="51"/>
       <c r="Y96" s="33"/>
       <c r="Z96" s="67">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA96" s="33"/>
-      <c r="AB96" s="34"/>
+      <c r="AA96" s="33">
+        <v>5</v>
+      </c>
+      <c r="AB96" s="51"/>
       <c r="AC96" s="33"/>
       <c r="AD96" s="37"/>
       <c r="AE96" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AF96" s="80"/>
+        <v>153</v>
+      </c>
+      <c r="AF96" s="79"/>
     </row>
     <row r="97" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-      <c r="C97" s="61" t="s">
-        <v>87</v>
-      </c>
+      <c r="B97" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="24"/>
       <c r="D97" s="56"/>
       <c r="E97" s="56"/>
       <c r="F97" s="56"/>
@@ -6530,9 +6557,7 @@
       <c r="H97" s="33"/>
       <c r="I97" s="33"/>
       <c r="J97" s="33"/>
-      <c r="K97" s="33">
-        <v>7</v>
-      </c>
+      <c r="K97" s="33"/>
       <c r="L97" s="33"/>
       <c r="M97" s="33"/>
       <c r="N97" s="33"/>
@@ -6551,27 +6576,27 @@
         <v>0</v>
       </c>
       <c r="W97" s="33"/>
-      <c r="X97" s="51"/>
+      <c r="X97" s="34"/>
       <c r="Y97" s="33"/>
       <c r="Z97" s="67">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA97" s="33"/>
-      <c r="AB97" s="51"/>
+      <c r="AB97" s="34"/>
       <c r="AC97" s="33"/>
       <c r="AD97" s="37"/>
       <c r="AE97" s="77">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AF97" s="79"/>
+      <c r="AF97" s="80"/>
     </row>
     <row r="98" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-      <c r="C98" s="61" t="s">
-        <v>52</v>
-      </c>
+      <c r="B98" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="61"/>
       <c r="D98" s="56"/>
       <c r="E98" s="56"/>
       <c r="F98" s="56"/>
@@ -6580,9 +6605,7 @@
       <c r="I98" s="33"/>
       <c r="J98" s="33"/>
       <c r="K98" s="33"/>
-      <c r="L98" s="33">
-        <v>148</v>
-      </c>
+      <c r="L98" s="33"/>
       <c r="M98" s="33"/>
       <c r="N98" s="33"/>
       <c r="O98" s="33"/>
@@ -6606,35 +6629,39 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA98" s="33">
-        <v>5</v>
-      </c>
+      <c r="AA98" s="33"/>
       <c r="AB98" s="51"/>
       <c r="AC98" s="33"/>
       <c r="AD98" s="37"/>
       <c r="AE98" s="77">
         <f t="shared" si="19"/>
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="AF98" s="79"/>
     </row>
     <row r="99" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B99" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C99" s="24"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="61" t="s">
+        <v>26</v>
+      </c>
       <c r="D99" s="56"/>
       <c r="E99" s="56"/>
       <c r="F99" s="56"/>
-      <c r="G99" s="33"/>
+      <c r="G99" s="33">
+        <v>5</v>
+      </c>
       <c r="H99" s="33"/>
-      <c r="I99" s="33"/>
+      <c r="I99" s="33">
+        <v>57</v>
+      </c>
       <c r="J99" s="33"/>
       <c r="K99" s="33"/>
       <c r="L99" s="33"/>
       <c r="M99" s="33"/>
       <c r="N99" s="33"/>
-      <c r="O99" s="33"/>
+      <c r="O99" s="33">
+        <v>23</v>
+      </c>
       <c r="P99" s="36"/>
       <c r="Q99" s="17"/>
       <c r="R99" s="31"/>
@@ -6649,27 +6676,27 @@
         <v>0</v>
       </c>
       <c r="W99" s="33"/>
-      <c r="X99" s="34"/>
+      <c r="X99" s="51"/>
       <c r="Y99" s="33"/>
       <c r="Z99" s="67">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA99" s="33"/>
-      <c r="AB99" s="34"/>
+      <c r="AB99" s="51"/>
       <c r="AC99" s="33"/>
       <c r="AD99" s="37"/>
       <c r="AE99" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AF99" s="80"/>
+        <v>85</v>
+      </c>
+      <c r="AF99" s="79"/>
     </row>
     <row r="100" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B100" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C100" s="61"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="61" t="s">
+        <v>80</v>
+      </c>
       <c r="D100" s="56"/>
       <c r="E100" s="56"/>
       <c r="F100" s="56"/>
@@ -6681,7 +6708,9 @@
       <c r="L100" s="33"/>
       <c r="M100" s="33"/>
       <c r="N100" s="33"/>
-      <c r="O100" s="33"/>
+      <c r="O100" s="33">
+        <v>7</v>
+      </c>
       <c r="P100" s="36"/>
       <c r="Q100" s="17"/>
       <c r="R100" s="31"/>
@@ -6695,7 +6724,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="W100" s="33"/>
+      <c r="W100" s="33">
+        <v>15</v>
+      </c>
       <c r="X100" s="51"/>
       <c r="Y100" s="33"/>
       <c r="Z100" s="67">
@@ -6708,33 +6739,29 @@
       <c r="AD100" s="37"/>
       <c r="AE100" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF100" s="79"/>
     </row>
     <row r="101" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" s="61" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D101" s="56"/>
       <c r="E101" s="56"/>
       <c r="F101" s="56"/>
-      <c r="G101" s="33">
-        <v>5</v>
-      </c>
+      <c r="G101" s="33"/>
       <c r="H101" s="33"/>
-      <c r="I101" s="33">
-        <v>57</v>
-      </c>
+      <c r="I101" s="33"/>
       <c r="J101" s="33"/>
       <c r="K101" s="33"/>
-      <c r="L101" s="33"/>
+      <c r="L101" s="33">
+        <v>63</v>
+      </c>
       <c r="M101" s="33"/>
       <c r="N101" s="33"/>
-      <c r="O101" s="33">
-        <v>23</v>
-      </c>
+      <c r="O101" s="33"/>
       <c r="P101" s="36"/>
       <c r="Q101" s="17"/>
       <c r="R101" s="31"/>
@@ -6755,35 +6782,37 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA101" s="33"/>
+      <c r="AA101" s="33">
+        <v>10</v>
+      </c>
       <c r="AB101" s="51"/>
       <c r="AC101" s="33"/>
       <c r="AD101" s="37"/>
       <c r="AE101" s="77">
         <f t="shared" si="19"/>
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="AF101" s="79"/>
     </row>
     <row r="102" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="61" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D102" s="56"/>
       <c r="E102" s="56"/>
       <c r="F102" s="56"/>
       <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
+      <c r="H102" s="33">
+        <v>40</v>
+      </c>
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
       <c r="K102" s="33"/>
       <c r="L102" s="33"/>
       <c r="M102" s="33"/>
       <c r="N102" s="33"/>
-      <c r="O102" s="33">
-        <v>7</v>
-      </c>
+      <c r="O102" s="33"/>
       <c r="P102" s="36"/>
       <c r="Q102" s="17"/>
       <c r="R102" s="31"/>
@@ -6797,9 +6826,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="W102" s="33">
-        <v>15</v>
-      </c>
+      <c r="W102" s="33"/>
       <c r="X102" s="51"/>
       <c r="Y102" s="33"/>
       <c r="Z102" s="67">
@@ -6812,33 +6839,35 @@
       <c r="AD102" s="37"/>
       <c r="AE102" s="77">
         <f t="shared" si="19"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF102" s="79"/>
     </row>
     <row r="103" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="C103" s="61" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D103" s="56"/>
       <c r="E103" s="56"/>
       <c r="F103" s="56"/>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
+      <c r="I103" s="33">
+        <v>30</v>
+      </c>
       <c r="J103" s="33"/>
       <c r="K103" s="33"/>
-      <c r="L103" s="33">
-        <v>63</v>
-      </c>
+      <c r="L103" s="33"/>
       <c r="M103" s="33"/>
       <c r="N103" s="33"/>
       <c r="O103" s="33"/>
       <c r="P103" s="36"/>
       <c r="Q103" s="17"/>
       <c r="R103" s="31"/>
-      <c r="S103" s="33"/>
+      <c r="S103" s="33">
+        <v>3</v>
+      </c>
       <c r="T103" s="48" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -6856,36 +6885,42 @@
         <v>0</v>
       </c>
       <c r="AA103" s="33">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AB103" s="51"/>
       <c r="AC103" s="33"/>
       <c r="AD103" s="37"/>
       <c r="AE103" s="77">
         <f t="shared" si="19"/>
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="AF103" s="79"/>
     </row>
     <row r="104" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="61" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D104" s="56"/>
       <c r="E104" s="56"/>
       <c r="F104" s="56"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33">
-        <v>40</v>
-      </c>
-      <c r="I104" s="33"/>
+      <c r="G104" s="33">
+        <v>2.7</v>
+      </c>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33">
+        <v>27</v>
+      </c>
       <c r="J104" s="33"/>
       <c r="K104" s="33"/>
-      <c r="L104" s="33"/>
+      <c r="L104" s="33">
+        <v>26.5</v>
+      </c>
       <c r="M104" s="33"/>
       <c r="N104" s="33"/>
-      <c r="O104" s="33"/>
+      <c r="O104" s="33">
+        <v>35</v>
+      </c>
       <c r="P104" s="36"/>
       <c r="Q104" s="17"/>
       <c r="R104" s="31"/>
@@ -6899,7 +6934,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="W104" s="33"/>
+      <c r="W104" s="33">
+        <v>5</v>
+      </c>
       <c r="X104" s="51"/>
       <c r="Y104" s="33"/>
       <c r="Z104" s="67">
@@ -6912,23 +6949,21 @@
       <c r="AD104" s="37"/>
       <c r="AE104" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>96.2</v>
       </c>
       <c r="AF104" s="79"/>
     </row>
     <row r="105" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="61" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D105" s="56"/>
       <c r="E105" s="56"/>
       <c r="F105" s="56"/>
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
-      <c r="I105" s="33">
-        <v>30</v>
-      </c>
+      <c r="I105" s="33"/>
       <c r="J105" s="33"/>
       <c r="K105" s="33"/>
       <c r="L105" s="33"/>
@@ -6938,9 +6973,7 @@
       <c r="P105" s="36"/>
       <c r="Q105" s="17"/>
       <c r="R105" s="31"/>
-      <c r="S105" s="33">
-        <v>3</v>
-      </c>
+      <c r="S105" s="33"/>
       <c r="T105" s="48" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -6957,43 +6990,33 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA105" s="33">
-        <v>2</v>
-      </c>
+      <c r="AA105" s="33"/>
       <c r="AB105" s="51"/>
       <c r="AC105" s="33"/>
       <c r="AD105" s="37"/>
       <c r="AE105" s="77">
         <f t="shared" si="19"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF105" s="79"/>
     </row>
     <row r="106" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B106" s="6"/>
-      <c r="C106" s="61" t="s">
-        <v>64</v>
-      </c>
+      <c r="B106" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C106" s="61"/>
       <c r="D106" s="56"/>
       <c r="E106" s="56"/>
       <c r="F106" s="56"/>
-      <c r="G106" s="33">
-        <v>2.7</v>
-      </c>
+      <c r="G106" s="33"/>
       <c r="H106" s="33"/>
-      <c r="I106" s="33">
-        <v>27</v>
-      </c>
+      <c r="I106" s="33"/>
       <c r="J106" s="33"/>
       <c r="K106" s="33"/>
-      <c r="L106" s="33">
-        <v>26.5</v>
-      </c>
+      <c r="L106" s="33"/>
       <c r="M106" s="33"/>
       <c r="N106" s="33"/>
-      <c r="O106" s="33">
-        <v>35</v>
-      </c>
+      <c r="O106" s="33"/>
       <c r="P106" s="36"/>
       <c r="Q106" s="17"/>
       <c r="R106" s="31"/>
@@ -7007,9 +7030,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="W106" s="33">
-        <v>5</v>
-      </c>
+      <c r="W106" s="33"/>
       <c r="X106" s="51"/>
       <c r="Y106" s="33"/>
       <c r="Z106" s="67">
@@ -7022,14 +7043,14 @@
       <c r="AD106" s="37"/>
       <c r="AE106" s="77">
         <f t="shared" si="19"/>
-        <v>96.2</v>
+        <v>0</v>
       </c>
       <c r="AF106" s="79"/>
     </row>
     <row r="107" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" s="61" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D107" s="56"/>
       <c r="E107" s="56"/>
@@ -7039,7 +7060,9 @@
       <c r="I107" s="33"/>
       <c r="J107" s="33"/>
       <c r="K107" s="33"/>
-      <c r="L107" s="33"/>
+      <c r="L107" s="64">
+        <v>29</v>
+      </c>
       <c r="M107" s="33"/>
       <c r="N107" s="33"/>
       <c r="O107" s="33"/>
@@ -7069,15 +7092,15 @@
       <c r="AD107" s="37"/>
       <c r="AE107" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF107" s="79"/>
     </row>
     <row r="108" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B108" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C108" s="61"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="61" t="s">
+        <v>93</v>
+      </c>
       <c r="D108" s="56"/>
       <c r="E108" s="56"/>
       <c r="F108" s="56"/>
@@ -7086,7 +7109,9 @@
       <c r="I108" s="33"/>
       <c r="J108" s="33"/>
       <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
+      <c r="L108" s="64">
+        <v>11</v>
+      </c>
       <c r="M108" s="33"/>
       <c r="N108" s="33"/>
       <c r="O108" s="33"/>
@@ -7116,14 +7141,14 @@
       <c r="AD108" s="37"/>
       <c r="AE108" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF108" s="79"/>
     </row>
     <row r="109" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" s="61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D109" s="56"/>
       <c r="E109" s="56"/>
@@ -7134,7 +7159,7 @@
       <c r="J109" s="33"/>
       <c r="K109" s="33"/>
       <c r="L109" s="64">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M109" s="33"/>
       <c r="N109" s="33"/>
@@ -7165,14 +7190,14 @@
       <c r="AD109" s="37"/>
       <c r="AE109" s="77">
         <f t="shared" si="19"/>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AF109" s="79"/>
     </row>
     <row r="110" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="61" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D110" s="56"/>
       <c r="E110" s="56"/>
@@ -7221,7 +7246,7 @@
     <row r="111" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" s="61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D111" s="56"/>
       <c r="E111" s="56"/>
@@ -7232,7 +7257,7 @@
       <c r="J111" s="33"/>
       <c r="K111" s="33"/>
       <c r="L111" s="64">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M111" s="33"/>
       <c r="N111" s="33"/>
@@ -7263,15 +7288,13 @@
       <c r="AD111" s="37"/>
       <c r="AE111" s="77">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AF111" s="79"/>
     </row>
     <row r="112" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
-      <c r="C112" s="61" t="s">
-        <v>95</v>
-      </c>
+      <c r="C112" s="24"/>
       <c r="D112" s="56"/>
       <c r="E112" s="56"/>
       <c r="F112" s="56"/>
@@ -7280,9 +7303,7 @@
       <c r="I112" s="33"/>
       <c r="J112" s="33"/>
       <c r="K112" s="33"/>
-      <c r="L112" s="64">
-        <v>11</v>
-      </c>
+      <c r="L112" s="33"/>
       <c r="M112" s="33"/>
       <c r="N112" s="33"/>
       <c r="O112" s="33"/>
@@ -7312,15 +7333,13 @@
       <c r="AD112" s="37"/>
       <c r="AE112" s="77">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AF112" s="79"/>
     </row>
     <row r="113" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
-      <c r="C113" s="61" t="s">
-        <v>96</v>
-      </c>
+      <c r="C113" s="24"/>
       <c r="D113" s="56"/>
       <c r="E113" s="56"/>
       <c r="F113" s="56"/>
@@ -7329,9 +7348,7 @@
       <c r="I113" s="33"/>
       <c r="J113" s="33"/>
       <c r="K113" s="33"/>
-      <c r="L113" s="64">
-        <v>36</v>
-      </c>
+      <c r="L113" s="33"/>
       <c r="M113" s="33"/>
       <c r="N113" s="33"/>
       <c r="O113" s="33"/>
@@ -7361,7 +7378,7 @@
       <c r="AD113" s="37"/>
       <c r="AE113" s="77">
         <f t="shared" si="19"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF113" s="79"/>
     </row>
@@ -7455,368 +7472,283 @@
       </c>
       <c r="AF115" s="79"/>
     </row>
-    <row r="116" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B116" s="6"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="56"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="33"/>
-      <c r="J116" s="33"/>
-      <c r="K116" s="33"/>
-      <c r="L116" s="33"/>
-      <c r="M116" s="33"/>
-      <c r="N116" s="33"/>
-      <c r="O116" s="33"/>
-      <c r="P116" s="36"/>
-      <c r="Q116" s="17"/>
-      <c r="R116" s="31"/>
-      <c r="S116" s="33"/>
-      <c r="T116" s="48" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="U116" s="33"/>
-      <c r="V116" s="67">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W116" s="33"/>
-      <c r="X116" s="51"/>
-      <c r="Y116" s="33"/>
-      <c r="Z116" s="67">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA116" s="33"/>
-      <c r="AB116" s="51"/>
-      <c r="AC116" s="33"/>
-      <c r="AD116" s="37"/>
-      <c r="AE116" s="77">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AF116" s="79"/>
-    </row>
-    <row r="117" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B117" s="6"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="56"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
-      <c r="J117" s="33"/>
-      <c r="K117" s="33"/>
-      <c r="L117" s="33"/>
-      <c r="M117" s="33"/>
-      <c r="N117" s="33"/>
-      <c r="O117" s="33"/>
-      <c r="P117" s="36"/>
-      <c r="Q117" s="17"/>
-      <c r="R117" s="31"/>
-      <c r="S117" s="33"/>
-      <c r="T117" s="48" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="U117" s="33"/>
-      <c r="V117" s="67">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W117" s="33"/>
-      <c r="X117" s="51"/>
-      <c r="Y117" s="33"/>
-      <c r="Z117" s="67">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AA117" s="33"/>
-      <c r="AB117" s="51"/>
-      <c r="AC117" s="33"/>
-      <c r="AD117" s="37"/>
-      <c r="AE117" s="77">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AF117" s="79"/>
-    </row>
-    <row r="118" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="38" t="s">
+    <row r="116" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="39"/>
-      <c r="D118" s="40">
-        <f t="shared" ref="D118:P118" si="20">SUM(D7:D117)</f>
-        <v>1142.4000000000001</v>
-      </c>
-      <c r="E118" s="40">
+      <c r="C116" s="39"/>
+      <c r="D116" s="40">
+        <f t="shared" ref="D116:P116" si="20">SUM(D7:D115)</f>
+        <v>1132</v>
+      </c>
+      <c r="E116" s="40">
         <f t="shared" si="20"/>
         <v>314</v>
       </c>
-      <c r="F118" s="40">
+      <c r="F116" s="40">
         <f t="shared" si="20"/>
         <v>105</v>
       </c>
-      <c r="G118" s="40">
+      <c r="G116" s="40">
         <f t="shared" si="20"/>
         <v>16.7</v>
       </c>
-      <c r="H118" s="40">
+      <c r="H116" s="40">
         <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="I118" s="40">
+      <c r="I116" s="40">
         <f t="shared" si="20"/>
         <v>266.5</v>
       </c>
-      <c r="J118" s="40">
+      <c r="J116" s="40">
         <f t="shared" si="20"/>
         <v>58.5</v>
       </c>
-      <c r="K118" s="40">
+      <c r="K116" s="40">
         <f t="shared" si="20"/>
         <v>31</v>
       </c>
-      <c r="L118" s="40">
+      <c r="L116" s="40">
         <f t="shared" si="20"/>
         <v>627.5</v>
       </c>
-      <c r="M118" s="40">
+      <c r="M116" s="40">
         <f t="shared" si="20"/>
         <v>184</v>
       </c>
-      <c r="N118" s="40">
+      <c r="N116" s="40">
         <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="O118" s="40">
+      <c r="O116" s="40">
         <f t="shared" si="20"/>
         <v>188.5</v>
       </c>
-      <c r="P118" s="41">
+      <c r="P116" s="41">
         <f t="shared" si="20"/>
         <v>86</v>
       </c>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="40">
-        <f>SUM(R7:R117)</f>
-        <v>564</v>
-      </c>
-      <c r="S118" s="40">
-        <f>SUM(S7:S117)</f>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="40">
+        <f>SUM(R7:R115)</f>
+        <v>570</v>
+      </c>
+      <c r="S116" s="40">
+        <f>SUM(S7:S115)</f>
         <v>649.5</v>
       </c>
-      <c r="T118" s="40">
-        <f>SUM(T7:T117)</f>
-        <v>-92.5</v>
-      </c>
-      <c r="U118" s="40"/>
-      <c r="V118" s="40">
-        <f>SUM(V7:V117)</f>
+      <c r="T116" s="40">
+        <f>SUM(T7:T115)</f>
+        <v>-105.5</v>
+      </c>
+      <c r="U116" s="40"/>
+      <c r="V116" s="40">
+        <f>SUM(V7:V115)</f>
         <v>218</v>
       </c>
-      <c r="W118" s="40">
-        <f>SUM(W7:W117)</f>
+      <c r="W116" s="40">
+        <f>SUM(W7:W115)</f>
         <v>636</v>
       </c>
-      <c r="X118" s="52">
-        <f>SUM(X7:X117)</f>
+      <c r="X116" s="52">
+        <f>SUM(X7:X115)</f>
         <v>-156</v>
       </c>
-      <c r="Y118" s="40"/>
-      <c r="Z118" s="40">
-        <f>SUM(Z7:Z117)</f>
+      <c r="Y116" s="40"/>
+      <c r="Z116" s="40">
+        <f>SUM(Z7:Z115)</f>
         <v>28</v>
       </c>
-      <c r="AA118" s="40">
-        <f>SUM(AA7:AA117)</f>
+      <c r="AA116" s="40">
+        <f>SUM(AA7:AA115)</f>
         <v>473</v>
       </c>
-      <c r="AB118" s="52">
-        <f>SUM(AB7:AB117)</f>
-        <v>0</v>
-      </c>
-      <c r="AC118" s="40"/>
-      <c r="AD118" s="42">
-        <f>SUM(AD7:AD117)</f>
-        <v>730</v>
-      </c>
-      <c r="AE118" s="78">
-        <f>SUM(AE7:AE117)</f>
+      <c r="AB116" s="52">
+        <f>SUM(AB7:AB115)</f>
+        <v>0</v>
+      </c>
+      <c r="AC116" s="40"/>
+      <c r="AD116" s="42">
+        <f>SUM(AD7:AD115)</f>
+        <v>736</v>
+      </c>
+      <c r="AE116" s="78">
+        <f>SUM(AE7:AE115)</f>
         <v>3206.2</v>
       </c>
-      <c r="AF118" s="79"/>
-    </row>
-    <row r="119" spans="2:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="AF116" s="79"/>
+    </row>
+    <row r="117" spans="2:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R118" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="S118" s="104"/>
+      <c r="T118" s="104"/>
+      <c r="U118" s="104"/>
+      <c r="V118" s="104"/>
+      <c r="W118" s="104"/>
+      <c r="X118" s="104"/>
+      <c r="Y118" s="104"/>
+      <c r="Z118" s="104"/>
+      <c r="AA118" s="104"/>
+      <c r="AB118" s="104"/>
+      <c r="AC118" s="104"/>
+      <c r="AD118" s="104"/>
+      <c r="AE118" s="104"/>
+      <c r="AF118" s="104"/>
+    </row>
+    <row r="119" spans="2:32" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R119" s="73"/>
+      <c r="S119" s="73"/>
+      <c r="T119" s="73"/>
+      <c r="U119" s="73"/>
+      <c r="V119" s="73"/>
+      <c r="W119" s="73"/>
+      <c r="X119" s="73"/>
+      <c r="Y119" s="73"/>
+      <c r="Z119" s="73"/>
+      <c r="AA119" s="73"/>
+      <c r="AB119" s="73"/>
+      <c r="AD119" s="74"/>
+      <c r="AE119" s="74"/>
+    </row>
     <row r="120" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="R120" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="S120" s="92"/>
-      <c r="T120" s="92"/>
-      <c r="U120" s="92"/>
-      <c r="V120" s="92"/>
-      <c r="W120" s="92"/>
-      <c r="X120" s="92"/>
-      <c r="Y120" s="92"/>
-      <c r="Z120" s="92"/>
-      <c r="AA120" s="92"/>
-      <c r="AB120" s="92"/>
-      <c r="AC120" s="92"/>
-      <c r="AD120" s="92"/>
-      <c r="AE120" s="92"/>
-      <c r="AF120" s="92"/>
-    </row>
-    <row r="121" spans="2:32" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R121" s="73"/>
-      <c r="S121" s="73"/>
-      <c r="T121" s="73"/>
-      <c r="U121" s="73"/>
-      <c r="V121" s="73"/>
-      <c r="W121" s="73"/>
-      <c r="X121" s="73"/>
-      <c r="Y121" s="73"/>
-      <c r="Z121" s="73"/>
-      <c r="AA121" s="73"/>
-      <c r="AB121" s="73"/>
-      <c r="AD121" s="74"/>
-      <c r="AE121" s="74"/>
+      <c r="R120" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="S120" s="103"/>
+      <c r="T120" s="103"/>
+      <c r="V120" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="W120" s="103"/>
+      <c r="X120" s="103"/>
+      <c r="Z120" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA120" s="103"/>
+      <c r="AB120" s="103"/>
+      <c r="AD120" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE120" s="103"/>
+      <c r="AF120" s="103"/>
+    </row>
+    <row r="121" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R121" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="S121" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="T121" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="V121" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="W121" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="X121" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z121" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA121" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB121" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD121" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE121" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF121" s="70" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="122" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="R122" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="S122" s="91"/>
-      <c r="T122" s="91"/>
-      <c r="V122" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="W122" s="91"/>
-      <c r="X122" s="91"/>
-      <c r="Z122" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA122" s="91"/>
-      <c r="AB122" s="91"/>
-      <c r="AD122" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE122" s="91"/>
-      <c r="AF122" s="91"/>
+      <c r="R122" s="27">
+        <f>SUMIFS(R7:R115,R7:R115,"&gt;0",S7:S115,"&gt;0")</f>
+        <v>324</v>
+      </c>
+      <c r="S122" s="27">
+        <f>SUMIFS(S7:S115,R7:R115,"&gt;0",S7:S115,"&gt;0")</f>
+        <v>429.5</v>
+      </c>
+      <c r="T122" s="71">
+        <f>R122-S122</f>
+        <v>-105.5</v>
+      </c>
+      <c r="V122" s="27">
+        <f>SUMIFS(V7:V115,V7:V115,"&gt;0",W7:W115,"&gt;0")</f>
+        <v>78</v>
+      </c>
+      <c r="W122" s="27">
+        <f>SUMIFS(W7:W115,V7:V115,"&gt;0",W7:W115,"&gt;0")</f>
+        <v>234</v>
+      </c>
+      <c r="X122" s="71">
+        <f>V122-W122</f>
+        <v>-156</v>
+      </c>
+      <c r="Z122" s="27">
+        <f>SUMIFS(Z7:Z115,Z7:Z115,"&gt;0",AA7:AA115,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AA122" s="27">
+        <f>SUMIFS(AA7:AA115,Z7:Z115,"&gt;0",AA7:AA115,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AB122" s="71">
+        <f>Z122-AA122</f>
+        <v>0</v>
+      </c>
+      <c r="AD122" s="27">
+        <f>SUMIFS(AD7:AD115,AD7:AD115,"&gt;0",AE7:AE115,"&gt;0")</f>
+        <v>548</v>
+      </c>
+      <c r="AE122" s="27">
+        <f>SUMIFS(AE7:AE115,AD7:AD115,"&gt;0",AE7:AE115,"&gt;0")</f>
+        <v>1076.5</v>
+      </c>
+      <c r="AF122" s="71">
+        <f>AD122-AE122</f>
+        <v>-528.5</v>
+      </c>
     </row>
     <row r="123" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="R123" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="S123" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="T123" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="V123" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="W123" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="X123" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z123" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA123" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB123" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD123" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE123" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF123" s="70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="124" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="R124" s="27">
-        <f>SUMIFS(R7:R117,R7:R117,"&gt;0",S7:S117,"&gt;0")</f>
-        <v>308</v>
-      </c>
-      <c r="S124" s="27">
-        <f>SUMIFS(S7:S117,R7:R117,"&gt;0",S7:S117,"&gt;0")</f>
-        <v>400.5</v>
-      </c>
-      <c r="T124" s="71">
-        <f>R124-S124</f>
-        <v>-92.5</v>
-      </c>
-      <c r="V124" s="27">
-        <f>SUMIFS(V7:V117,V7:V117,"&gt;0",W7:W117,"&gt;0")</f>
-        <v>74</v>
-      </c>
-      <c r="W124" s="27">
-        <f>SUMIFS(W7:W117,V7:V117,"&gt;0",W7:W117,"&gt;0")</f>
-        <v>230</v>
-      </c>
-      <c r="X124" s="71">
-        <f>V124-W124</f>
-        <v>-156</v>
-      </c>
-      <c r="Z124" s="27">
-        <f>SUMIFS(Z7:Z117,Z7:Z117,"&gt;0",AA7:AA117,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="AA124" s="27">
-        <f>SUMIFS(AA7:AA117,Z7:Z117,"&gt;0",AA7:AA117,"&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="AB124" s="71">
-        <f>Z124-AA124</f>
-        <v>0</v>
-      </c>
-      <c r="AD124" s="27">
-        <f>SUMIFS(AD7:AD117,AD7:AD117,"&gt;0",AE7:AE117,"&gt;0")</f>
-        <v>542</v>
-      </c>
-      <c r="AE124" s="27">
-        <f>SUMIFS(AE7:AE117,AD7:AD117,"&gt;0",AE7:AE117,"&gt;0")</f>
-        <v>1028.5</v>
-      </c>
-      <c r="AF124" s="71">
-        <f>AD124-AE124</f>
-        <v>-486.5</v>
-      </c>
-    </row>
-    <row r="125" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="T125" s="90">
-        <f>T124/R124</f>
-        <v>-0.30032467532467533</v>
-      </c>
-      <c r="X125" s="90">
-        <f>X124/V124</f>
-        <v>-2.1081081081081079</v>
-      </c>
-      <c r="AB125" s="90" t="e">
-        <f>AB124/Z124</f>
+      <c r="T123" s="90">
+        <f>T122/R122</f>
+        <v>-0.32561728395061729</v>
+      </c>
+      <c r="X123" s="90">
+        <f>X122/V122</f>
+        <v>-2</v>
+      </c>
+      <c r="AB123" s="90" t="e">
+        <f>AB122/Z122</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF125" s="90">
-        <f>AF124/AD124</f>
-        <v>-0.89760147601476015</v>
+      <c r="AF123" s="90">
+        <f>AF122/AD122</f>
+        <v>-0.96441605839416056</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="R120:T120"/>
+    <mergeCell ref="V120:X120"/>
+    <mergeCell ref="Z120:AB120"/>
+    <mergeCell ref="R118:AF118"/>
+    <mergeCell ref="AD120:AF120"/>
     <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="B2:AF2"/>
@@ -7826,17 +7758,13 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="V5:X5"/>
-    <mergeCell ref="R122:T122"/>
-    <mergeCell ref="V122:X122"/>
-    <mergeCell ref="Z122:AB122"/>
-    <mergeCell ref="R120:AF120"/>
-    <mergeCell ref="AD122:AF122"/>
   </mergeCells>
-  <conditionalFormatting sqref="C8:C36">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  <conditionalFormatting sqref="C8:C34">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7848,7 +7776,7 @@
       <pane xSplit="6" ySplit="6" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:AF3"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10942,23 +10870,23 @@
     </row>
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R102" s="92" t="s">
+      <c r="R102" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="S102" s="92"/>
-      <c r="T102" s="92"/>
-      <c r="U102" s="92"/>
-      <c r="V102" s="92"/>
-      <c r="W102" s="92"/>
-      <c r="X102" s="92"/>
-      <c r="Y102" s="92"/>
-      <c r="Z102" s="92"/>
-      <c r="AA102" s="92"/>
-      <c r="AB102" s="92"/>
-      <c r="AC102" s="92"/>
-      <c r="AD102" s="92"/>
-      <c r="AE102" s="92"/>
-      <c r="AF102" s="92"/>
+      <c r="S102" s="104"/>
+      <c r="T102" s="104"/>
+      <c r="U102" s="104"/>
+      <c r="V102" s="104"/>
+      <c r="W102" s="104"/>
+      <c r="X102" s="104"/>
+      <c r="Y102" s="104"/>
+      <c r="Z102" s="104"/>
+      <c r="AA102" s="104"/>
+      <c r="AB102" s="104"/>
+      <c r="AC102" s="104"/>
+      <c r="AD102" s="104"/>
+      <c r="AE102" s="104"/>
+      <c r="AF102" s="104"/>
     </row>
     <row r="103" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R103" s="73"/>
@@ -10976,26 +10904,26 @@
       <c r="AE103" s="74"/>
     </row>
     <row r="104" spans="18:32" x14ac:dyDescent="0.25">
-      <c r="R104" s="91" t="s">
+      <c r="R104" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="S104" s="91"/>
-      <c r="T104" s="91"/>
-      <c r="V104" s="91" t="s">
+      <c r="S104" s="103"/>
+      <c r="T104" s="103"/>
+      <c r="V104" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="W104" s="91"/>
-      <c r="X104" s="91"/>
-      <c r="Z104" s="91" t="s">
+      <c r="W104" s="103"/>
+      <c r="X104" s="103"/>
+      <c r="Z104" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="AA104" s="91"/>
-      <c r="AB104" s="91"/>
-      <c r="AD104" s="91" t="s">
+      <c r="AA104" s="103"/>
+      <c r="AB104" s="103"/>
+      <c r="AD104" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="AE104" s="91"/>
-      <c r="AF104" s="91"/>
+      <c r="AE104" s="103"/>
+      <c r="AF104" s="103"/>
     </row>
     <row r="105" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R105" s="69" t="s">
@@ -11087,6 +11015,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="R102:AF102"/>
+    <mergeCell ref="R104:T104"/>
+    <mergeCell ref="V104:X104"/>
+    <mergeCell ref="Z104:AB104"/>
+    <mergeCell ref="AD104:AF104"/>
     <mergeCell ref="B2:AF2"/>
     <mergeCell ref="B3:AF3"/>
     <mergeCell ref="R5:T5"/>
@@ -11096,11 +11029,6 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="V5:X5"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="R102:AF102"/>
-    <mergeCell ref="R104:T104"/>
-    <mergeCell ref="V104:X104"/>
-    <mergeCell ref="Z104:AB104"/>
-    <mergeCell ref="AD104:AF104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14715,4 +14643,3398 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F5B613-F7AD-4EE0-B6AC-FE713E557869}">
+  <dimension ref="B2:AF106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J49" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="10.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="10" customWidth="1"/>
+    <col min="7" max="9" width="9.42578125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="10"/>
+    <col min="19" max="19" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="2.28515625" style="10" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.28515625" style="10" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.7109375" style="10" customWidth="1"/>
+    <col min="30" max="31" width="9.7109375" style="12" customWidth="1"/>
+    <col min="32" max="32" width="2.28515625" style="10" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:32" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B3" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="V5" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Z5" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93"/>
+      <c r="AD5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="95"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="50"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="50"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="81"/>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="57">
+        <v>4</v>
+      </c>
+      <c r="E8" s="57">
+        <v>8</v>
+      </c>
+      <c r="F8" s="57"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="3">
+        <f>D8</f>
+        <v>4</v>
+      </c>
+      <c r="S8" s="27"/>
+      <c r="T8" s="48" t="str">
+        <f t="shared" ref="T8:T28" si="0">IF(R8&gt;0,IF(S8&gt;0,R8-S8,""),"")</f>
+        <v/>
+      </c>
+      <c r="V8" s="3">
+        <f>E8</f>
+        <v>8</v>
+      </c>
+      <c r="W8" s="27"/>
+      <c r="X8" s="48" t="str">
+        <f>IF(V8&gt;0,IF(W8&gt;0,V8-W8,""),"")</f>
+        <v/>
+      </c>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="48" t="str">
+        <f>IF(Z8&gt;0,IF(AA8&gt;0,Z8-AA8,""),"")</f>
+        <v/>
+      </c>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="29">
+        <f>R8+V8+Z8</f>
+        <v>12</v>
+      </c>
+      <c r="AE8" s="81">
+        <f>G8+I8+J8+L8+M8+N8+O8+P8+S8+W8+AA8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="57">
+        <v>44</v>
+      </c>
+      <c r="E9" s="57">
+        <v>8</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="3">
+        <f t="shared" ref="R9:R63" si="1">D9</f>
+        <v>44</v>
+      </c>
+      <c r="S9" s="27"/>
+      <c r="T9" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" ref="V9:V63" si="2">E9</f>
+        <v>8</v>
+      </c>
+      <c r="W9" s="27"/>
+      <c r="X9" s="48" t="str">
+        <f t="shared" ref="X9:X28" si="3">IF(V9&gt;0,IF(W9&gt;0,V9-W9,""),"")</f>
+        <v/>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="48" t="str">
+        <f t="shared" ref="AB9:AB28" si="4">IF(Z9&gt;0,IF(AA9&gt;0,Z9-AA9,""),"")</f>
+        <v/>
+      </c>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="29">
+        <f t="shared" ref="AD9:AD29" si="5">R9+V9+Z9</f>
+        <v>52</v>
+      </c>
+      <c r="AE9" s="81">
+        <f t="shared" ref="AE9:AE62" si="6">G9+I9+J9+L9+M9+N9+O9+P9+S9+W9+AA9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="57">
+        <v>30</v>
+      </c>
+      <c r="E10" s="57">
+        <v>20</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="S10" s="27"/>
+      <c r="T10" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="W10" s="27"/>
+      <c r="X10" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="29">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="AE10" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="57">
+        <v>56</v>
+      </c>
+      <c r="E11" s="57">
+        <v>20</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="3">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="S11" s="27"/>
+      <c r="T11" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="W11" s="27"/>
+      <c r="X11" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="29">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="AE11" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="27"/>
+      <c r="T12" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="27"/>
+      <c r="X12" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="57">
+        <v>4</v>
+      </c>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S13" s="27"/>
+      <c r="T13" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="27"/>
+      <c r="X13" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="29">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AE13" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="57">
+        <v>12</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="S14" s="27"/>
+      <c r="T14" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="27"/>
+      <c r="X14" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="29">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="AE14" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="57">
+        <v>16</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="S15" s="27"/>
+      <c r="T15" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="27"/>
+      <c r="X15" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="29">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="AE15" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="57">
+        <v>0</v>
+      </c>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="27"/>
+      <c r="T16" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="27"/>
+      <c r="X16" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="57">
+        <v>0</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="27"/>
+      <c r="T17" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="27"/>
+      <c r="X17" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="57">
+        <v>4</v>
+      </c>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S18" s="27"/>
+      <c r="T18" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="27"/>
+      <c r="X18" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="29">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AE18" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="57">
+        <v>32</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="S19" s="27"/>
+      <c r="T19" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="27"/>
+      <c r="X19" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="29">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="AE19" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="57">
+        <v>62</v>
+      </c>
+      <c r="E20" s="57">
+        <v>40</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="3">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="S20" s="27"/>
+      <c r="T20" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="W20" s="27"/>
+      <c r="X20" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="29">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="AE20" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="57">
+        <v>50</v>
+      </c>
+      <c r="E21" s="57">
+        <v>6</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="S21" s="27"/>
+      <c r="T21" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V21" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="W21" s="27"/>
+      <c r="X21" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="29">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="AE21" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="57">
+        <v>30</v>
+      </c>
+      <c r="E22" s="57">
+        <v>12</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="S22" s="27"/>
+      <c r="T22" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V22" s="3">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="W22" s="27"/>
+      <c r="X22" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="29">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="AE22" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="57">
+        <v>10</v>
+      </c>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S23" s="33"/>
+      <c r="T23" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V23" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="33"/>
+      <c r="X23" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="29">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AE23" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="57">
+        <v>20</v>
+      </c>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S24" s="33"/>
+      <c r="T24" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V24" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="33"/>
+      <c r="X24" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="29">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AE24" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="18">
+        <v>80</v>
+      </c>
+      <c r="E25" s="18">
+        <v>40</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="S25" s="33"/>
+      <c r="T25" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="V25" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="W25" s="33"/>
+      <c r="X25" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD25" s="29">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="AE25" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="18">
+        <v>32</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="S26" s="27"/>
+      <c r="T26" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U26" s="27"/>
+      <c r="V26" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="27"/>
+      <c r="X26" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="29">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="AE26" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="27"/>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="58">
+        <v>8</v>
+      </c>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S27" s="27"/>
+      <c r="T27" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U27" s="27"/>
+      <c r="V27" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="27"/>
+      <c r="X27" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="29">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AE27" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="27"/>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="18">
+        <v>70</v>
+      </c>
+      <c r="E28" s="18">
+        <v>8</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="3">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="S28" s="27"/>
+      <c r="T28" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U28" s="27"/>
+      <c r="V28" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="W28" s="27"/>
+      <c r="X28" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="29">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="AE28" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="27"/>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="33"/>
+      <c r="T29" s="48" t="str">
+        <f t="shared" ref="T29:T63" si="7">IF(S29&gt;0,R29-S29,"")</f>
+        <v/>
+      </c>
+      <c r="U29" s="33"/>
+      <c r="V29" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="33"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="33"/>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="33"/>
+      <c r="T30" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U30" s="33"/>
+      <c r="V30" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="33"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="33"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="5"/>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="33"/>
+      <c r="T31" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U31" s="33"/>
+      <c r="V31" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="33"/>
+      <c r="X31" s="48" t="str">
+        <f t="shared" ref="X31:X41" si="8">IF(W31&gt;0,V31-W31,"")</f>
+        <v/>
+      </c>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="48" t="str">
+        <f t="shared" ref="AB31:AB41" si="9">IF(AA31&gt;0,Z31-AA31,"")</f>
+        <v/>
+      </c>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="29">
+        <f>R31+V31+Z31</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="5"/>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="33"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="33"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="29">
+        <f>R32+V32+Z32</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="5"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="33"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="33"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="29">
+        <f>R33+V33+Z33</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="5"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="33"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="33"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="5"/>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="33"/>
+      <c r="T35" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U35" s="33"/>
+      <c r="V35" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="33"/>
+      <c r="X35" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="29">
+        <f t="shared" ref="AD35:AD41" si="10">R35+V35+Z35</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="5"/>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="55"/>
+      <c r="T36" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U36" s="33"/>
+      <c r="V36" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="33"/>
+      <c r="X36" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="5"/>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="33"/>
+      <c r="T37" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U37" s="33"/>
+      <c r="V37" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="33"/>
+      <c r="X37" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="5"/>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="33"/>
+      <c r="T38" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U38" s="33"/>
+      <c r="V38" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="33"/>
+      <c r="X38" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="5"/>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="33"/>
+      <c r="T39" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U39" s="33"/>
+      <c r="V39" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="33"/>
+      <c r="X39" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="5"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="33"/>
+      <c r="T40" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U40" s="33"/>
+      <c r="V40" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="33"/>
+      <c r="X40" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="5"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="33"/>
+      <c r="T41" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U41" s="33"/>
+      <c r="V41" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="33"/>
+      <c r="X41" s="48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="5"/>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="33"/>
+      <c r="T42" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U42" s="33"/>
+      <c r="V42" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="33"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="33"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="5"/>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="33"/>
+      <c r="T43" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U43" s="33"/>
+      <c r="V43" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="33"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="33"/>
+      <c r="AD43" s="37"/>
+      <c r="AE43" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="5"/>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="33"/>
+      <c r="T44" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U44" s="33"/>
+      <c r="V44" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="33"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="33"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="5"/>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="C45" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="33"/>
+      <c r="T45" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U45" s="33"/>
+      <c r="V45" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="33"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="33"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="5"/>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="C46" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="33"/>
+      <c r="T46" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U46" s="33"/>
+      <c r="V46" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="33"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="33"/>
+      <c r="AD46" s="37"/>
+      <c r="AE46" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="5"/>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="33"/>
+      <c r="T47" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U47" s="33"/>
+      <c r="V47" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="33"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="5"/>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="33"/>
+      <c r="T48" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U48" s="33"/>
+      <c r="V48" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="33"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="33"/>
+      <c r="AA48" s="33"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="33"/>
+      <c r="AD48" s="37"/>
+      <c r="AE48" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="5"/>
+    </row>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="33"/>
+      <c r="T49" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U49" s="33"/>
+      <c r="V49" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="33"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="37"/>
+      <c r="AE49" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="5"/>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="33"/>
+      <c r="T50" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U50" s="33"/>
+      <c r="V50" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="33"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="33"/>
+      <c r="AD50" s="37"/>
+      <c r="AE50" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="5"/>
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B51" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="33"/>
+      <c r="T51" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U51" s="33"/>
+      <c r="V51" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="33"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="51"/>
+      <c r="AC51" s="33"/>
+      <c r="AD51" s="37"/>
+      <c r="AE51" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="33"/>
+    </row>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B52" s="61"/>
+      <c r="C52" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="33"/>
+      <c r="T52" s="48"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="33"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="51"/>
+      <c r="AC52" s="33"/>
+      <c r="AD52" s="37"/>
+      <c r="AE52" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="33"/>
+    </row>
+    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B53" s="61"/>
+      <c r="C53" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="33"/>
+      <c r="T53" s="48"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="33"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="33"/>
+    </row>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B54" s="61"/>
+      <c r="C54" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="33"/>
+      <c r="T54" s="48"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="33"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="51"/>
+      <c r="AC54" s="33"/>
+      <c r="AD54" s="37"/>
+      <c r="AE54" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="33"/>
+    </row>
+    <row r="55" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B55" s="61"/>
+      <c r="C55" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="33"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="33"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="33"/>
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="33"/>
+    </row>
+    <row r="56" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B56" s="61"/>
+      <c r="C56" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="33"/>
+      <c r="T56" s="48"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="33"/>
+      <c r="X56" s="51"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="51"/>
+      <c r="AC56" s="33"/>
+      <c r="AD56" s="37"/>
+      <c r="AE56" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="33"/>
+    </row>
+    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B57" s="61"/>
+      <c r="C57" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="33"/>
+      <c r="T57" s="48"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="33"/>
+      <c r="X57" s="51"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="51"/>
+      <c r="AC57" s="33"/>
+      <c r="AD57" s="37"/>
+      <c r="AE57" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="33"/>
+    </row>
+    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B58" s="61"/>
+      <c r="C58" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="36"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="33"/>
+      <c r="T58" s="48"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="33"/>
+      <c r="X58" s="51"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="51"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="37"/>
+      <c r="AE58" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="33"/>
+    </row>
+    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B59" s="61"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="33"/>
+      <c r="T59" s="48"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="33"/>
+      <c r="X59" s="51"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="51"/>
+      <c r="AC59" s="33"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="33"/>
+    </row>
+    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B60" s="61"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="33"/>
+      <c r="T60" s="48"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="33"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="51"/>
+      <c r="AC60" s="33"/>
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="33"/>
+    </row>
+    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="33"/>
+      <c r="T61" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U61" s="33"/>
+      <c r="V61" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="33"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="51"/>
+      <c r="AC61" s="33"/>
+      <c r="AD61" s="37"/>
+      <c r="AE61" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="33"/>
+    </row>
+    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="33"/>
+      <c r="T62" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U62" s="33"/>
+      <c r="V62" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="33"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="51"/>
+      <c r="AC62" s="33"/>
+      <c r="AD62" s="37"/>
+      <c r="AE62" s="81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="33"/>
+    </row>
+    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B63" s="6"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="33"/>
+      <c r="T63" s="48" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U63" s="33"/>
+      <c r="V63" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="33"/>
+      <c r="X63" s="51"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="51"/>
+      <c r="AC63" s="33"/>
+      <c r="AD63" s="37"/>
+      <c r="AE63" s="82"/>
+      <c r="AF63" s="33"/>
+    </row>
+    <row r="64" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="40">
+        <f>SUM(D7:D63)</f>
+        <v>564</v>
+      </c>
+      <c r="E64" s="40">
+        <f>SUM(E7:E63)</f>
+        <v>162</v>
+      </c>
+      <c r="F64" s="40">
+        <f>SUM(F7:F63)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="40">
+        <f>SUM(G7:G63)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40">
+        <f>SUM(I7:I63)</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="40">
+        <f>SUM(J7:J63)</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40">
+        <f>SUM(L7:L63)</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="40">
+        <f>SUM(M7:M63)</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="40">
+        <f>SUM(N7:N63)</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="40">
+        <f>SUM(O7:O63)</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="41">
+        <f>SUM(P7:P63)</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="40">
+        <f>SUM(R7:R63)</f>
+        <v>564</v>
+      </c>
+      <c r="S64" s="40">
+        <f>SUM(S7:S63)</f>
+        <v>0</v>
+      </c>
+      <c r="T64" s="40">
+        <f>SUM(T7:T63)</f>
+        <v>0</v>
+      </c>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40">
+        <f>SUM(V7:V63)</f>
+        <v>162</v>
+      </c>
+      <c r="W64" s="40">
+        <f>SUM(W7:W63)</f>
+        <v>0</v>
+      </c>
+      <c r="X64" s="52">
+        <f>SUM(X7:X63)</f>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="40">
+        <f>SUM(Z7:Z63)</f>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="40">
+        <f>SUM(AA7:AA63)</f>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="52">
+        <f>SUM(AB7:AB63)</f>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="40"/>
+      <c r="AD64" s="42">
+        <f>SUM(AD7:AD63)</f>
+        <v>726</v>
+      </c>
+      <c r="AE64" s="42">
+        <f>SUM(AE7:AE63)</f>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="40"/>
+    </row>
+    <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R102" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="S102" s="104"/>
+      <c r="T102" s="104"/>
+      <c r="U102" s="104"/>
+      <c r="V102" s="104"/>
+      <c r="W102" s="104"/>
+      <c r="X102" s="104"/>
+      <c r="Y102" s="104"/>
+      <c r="Z102" s="104"/>
+      <c r="AA102" s="104"/>
+      <c r="AB102" s="104"/>
+      <c r="AC102" s="104"/>
+      <c r="AD102" s="104"/>
+      <c r="AE102" s="104"/>
+      <c r="AF102" s="104"/>
+    </row>
+    <row r="103" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R103" s="73"/>
+      <c r="S103" s="73"/>
+      <c r="T103" s="73"/>
+      <c r="U103" s="73"/>
+      <c r="V103" s="73"/>
+      <c r="W103" s="73"/>
+      <c r="X103" s="73"/>
+      <c r="Y103" s="73"/>
+      <c r="Z103" s="73"/>
+      <c r="AA103" s="73"/>
+      <c r="AB103" s="73"/>
+      <c r="AD103" s="74"/>
+      <c r="AE103" s="74"/>
+    </row>
+    <row r="104" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R104" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="S104" s="103"/>
+      <c r="T104" s="103"/>
+      <c r="V104" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="W104" s="103"/>
+      <c r="X104" s="103"/>
+      <c r="Z104" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA104" s="103"/>
+      <c r="AB104" s="103"/>
+      <c r="AD104" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE104" s="103"/>
+      <c r="AF104" s="103"/>
+    </row>
+    <row r="105" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R105" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="S105" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="T105" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="V105" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="W105" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="X105" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z105" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA105" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB105" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD105" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE105" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF105" s="70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="18:32" x14ac:dyDescent="0.25">
+      <c r="R106" s="27">
+        <f>SUMIFS(R6:R99,R6:R99,"&gt;0",S6:S99,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="S106" s="27">
+        <f>SUMIFS(S6:S99,R6:R99,"&gt;0",S6:S99,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="T106" s="71">
+        <f>R106-S106</f>
+        <v>0</v>
+      </c>
+      <c r="V106" s="27">
+        <f>SUMIFS(V6:V99,V6:V99,"&gt;0",W6:W99,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="W106" s="27">
+        <f>SUMIFS(W6:W99,V6:V99,"&gt;0",W6:W99,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="X106" s="71">
+        <f>V106-W106</f>
+        <v>0</v>
+      </c>
+      <c r="Z106" s="27">
+        <f>SUMIFS(Z6:Z99,Z6:Z99,"&gt;0",AA6:AA99,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AA106" s="27">
+        <f>SUMIFS(AA6:AA99,Z6:Z99,"&gt;0",AA6:AA99,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AB106" s="71">
+        <f>Z106-AA106</f>
+        <v>0</v>
+      </c>
+      <c r="AD106" s="27">
+        <f>SUMIFS(AD6:AD99,AD6:AD99,"&gt;0",AE6:AE99,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AE106" s="27">
+        <f>SUMIFS(AE6:AE99,AD6:AD99,"&gt;0",AE6:AE99,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="AF106" s="71">
+        <f>AD106-AE106</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="R102:AF102"/>
+    <mergeCell ref="R104:T104"/>
+    <mergeCell ref="V104:X104"/>
+    <mergeCell ref="Z104:AB104"/>
+    <mergeCell ref="AD104:AF104"/>
+    <mergeCell ref="B2:AF2"/>
+    <mergeCell ref="B3:AF3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="Z5:AB5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>